--- a/electrocomponents inventory.xlsx
+++ b/electrocomponents inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinJung\Desktop\computer_share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F633C0C3-E73F-4430-AC86-90B724C1B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0A3E9-3528-48C7-A3B1-1F95C0C1EF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="249">
   <si>
     <t>capacitors</t>
   </si>
@@ -502,13 +502,283 @@
   </si>
   <si>
     <t>T495E227KO16ATE100,220uf,16V,2824</t>
+  </si>
+  <si>
+    <t>LP3985IM5-3.2/NOPB, 3.2V,0.15A</t>
+  </si>
+  <si>
+    <t>L78L05ACUTR, 5V,1A</t>
+  </si>
+  <si>
+    <t>L78L33ACUTR, 3.3V,1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS71730DCKR, 3.0V,150 mA </t>
+  </si>
+  <si>
+    <t>BA78M07FP-E2, 7v, 500mA</t>
+  </si>
+  <si>
+    <t>L78L06ABUTR, 6.0V, 0.1A</t>
+  </si>
+  <si>
+    <t>AP1117Y50G-13, 5V,1A, SOT89-3</t>
+  </si>
+  <si>
+    <t>MCP1804T-30021/MB,3V ,0.15A</t>
+  </si>
+  <si>
+    <t>LT3015EQ-5#PBF, -5V 1.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC5209-4.2YS,4.2V, 500mA </t>
+  </si>
+  <si>
+    <t>AN79LO5M-ND,5V,100mA</t>
+  </si>
+  <si>
+    <t>AN78L09M,9V,0.1A</t>
+  </si>
+  <si>
+    <t>LM2940SX-8.0/NOPB, 8V0.1A</t>
+  </si>
+  <si>
+    <t>L79L05ACUTR,-5V,0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM2937IMP-12/NOPB,12V,400 mA </t>
+  </si>
+  <si>
+    <t>BD80C0AFPS-E2, LD0,8V,0.1A</t>
+  </si>
+  <si>
+    <t>REG101UA-3,3V 8-SOIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS79030DBVR,3V50mA </t>
+  </si>
+  <si>
+    <t>L78L06ACUTR,6V,0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8006M,6V,50 mA </t>
+  </si>
+  <si>
+    <t>tps71712dckr,1.2v,0.15A</t>
+  </si>
+  <si>
+    <t>LTC1983ES6-5#TRMPBF,-5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG101NA-2.5/250,2.5V,10mA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8005M-ND,5V,50 mA </t>
+  </si>
+  <si>
+    <t>REG104FA-5KTTT,5V,1A</t>
+  </si>
+  <si>
+    <t>TPS79630KTTT,3.0V,1A</t>
+  </si>
+  <si>
+    <t>L4931ABD50-TR,5V</t>
+  </si>
+  <si>
+    <t>MC78L05ACDG,5V,0.1A</t>
+  </si>
+  <si>
+    <t>AN7708SP,8V,1.2A</t>
+  </si>
+  <si>
+    <t>LM2940S-8.0/NOPB,8V1A</t>
+  </si>
+  <si>
+    <t>LT1761ES5-2.5#TRMPBF,2.5V,100mA</t>
+  </si>
+  <si>
+    <t>TPS7172DCKR,1.2V,0.15A</t>
+  </si>
+  <si>
+    <t>US78M05CDCYR,POS,SOT-223</t>
+  </si>
+  <si>
+    <t>NJM78L05A,5V</t>
+  </si>
+  <si>
+    <t>UA78L05ACD,5V,0.1A</t>
+  </si>
+  <si>
+    <t>L78L0ACUTR,8V,0.1A</t>
+  </si>
+  <si>
+    <t>TPS71713DCKR,1.3V,150mA</t>
+  </si>
+  <si>
+    <t>TPS71715DCKR,1.5V,0.15A</t>
+  </si>
+  <si>
+    <t>L4931ABD35-TR,3.5V,0.25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT1761ES5-3.3#TRMPBF,3.3V,100mA </t>
+  </si>
+  <si>
+    <t>AN79L09M-ND,9V,100mA</t>
+  </si>
+  <si>
+    <t>L4931ABD33-TR,3.3V</t>
+  </si>
+  <si>
+    <t>NJM78L05UA,5V</t>
+  </si>
+  <si>
+    <t>L78M05ABDT-TR,5V,0.5A</t>
+  </si>
+  <si>
+    <t>UA78M05CDCYR</t>
+  </si>
+  <si>
+    <t>PDM2-S24-D5-S,5V,200mA</t>
+  </si>
+  <si>
+    <t>LM2940IMP-15CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4931ABD50-TR,5V,250mA </t>
+  </si>
+  <si>
+    <t>TPS71710DRVR,1.0V,150mA</t>
+  </si>
+  <si>
+    <t>L4931ABD120TR,12V</t>
+  </si>
+  <si>
+    <t>MCP1827T-5002E/ET,5V,1.5A</t>
+  </si>
+  <si>
+    <t>S24SE05006PDFA</t>
+  </si>
+  <si>
+    <t>VFSD1-S12-S12-SIP,12V</t>
+  </si>
+  <si>
+    <t>MCP1804T-3002IMB,150mA,28V</t>
+  </si>
+  <si>
+    <t>L7806ABD2T-TR,6V,1A</t>
+  </si>
+  <si>
+    <t>UA78M08CDCYR,POS 500mA</t>
+  </si>
+  <si>
+    <t>vco</t>
+  </si>
+  <si>
+    <t>HMC506LP4</t>
+  </si>
+  <si>
+    <t>HMC430LP4E,VCO 5.0-5.5GHZ</t>
+  </si>
+  <si>
+    <t>HMC466LP4E,VCO 6.1-6.72GHZ</t>
+  </si>
+  <si>
+    <t>HMC505LP4E,6.8-7.4GHZ</t>
+  </si>
+  <si>
+    <t>HMC390LP4E,3.55-3.90GHZ</t>
+  </si>
+  <si>
+    <t>HMC429LP4E,4.45-5.0GHZ</t>
+  </si>
+  <si>
+    <t>HMC735LP5E,10.5-12.2GHZ</t>
+  </si>
+  <si>
+    <t>ECS-8FMX-122.8-TR,12.288MHZ,5.0V</t>
+  </si>
+  <si>
+    <t>HMC431LP4E</t>
+  </si>
+  <si>
+    <t>HMC435MS8GE</t>
+  </si>
+  <si>
+    <t>435MS8GE</t>
+  </si>
+  <si>
+    <t>HMC736LP4E,14.5-15.0GHZ</t>
+  </si>
+  <si>
+    <t>HMC416LP4</t>
+  </si>
+  <si>
+    <t>HMC584LP5E</t>
+  </si>
+  <si>
+    <t>HMC389LP4E</t>
+  </si>
+  <si>
+    <t>HMC430LP4E</t>
+  </si>
+  <si>
+    <t>HMC583LP5E</t>
+  </si>
+  <si>
+    <t>HMC385LP4E</t>
+  </si>
+  <si>
+    <t>CVCO55CC-0971-0975</t>
+  </si>
+  <si>
+    <t>SG-531P 22.1184MHZ</t>
+  </si>
+  <si>
+    <t>SG-3030JC 32.7680KB3:ROHS</t>
+  </si>
+  <si>
+    <t>ECS-8FMX-245.7-TR,24.576MHZ</t>
+  </si>
+  <si>
+    <t>HMC736LP4E</t>
+  </si>
+  <si>
+    <t>HMC506LP4E,7.8-8.7GHZ</t>
+  </si>
+  <si>
+    <t>ECS-8FMX-491.5-TR,49.152 MHZ</t>
+  </si>
+  <si>
+    <t>ECS-2200B-098,9.8304MHZ</t>
+  </si>
+  <si>
+    <t>CSX750ACB125.000MTR,125 MHZ</t>
+  </si>
+  <si>
+    <t>ECS-2100A-120,12MHZ</t>
+  </si>
+  <si>
+    <t>CSX750ACB133.330MTR,133 MHZ</t>
+  </si>
+  <si>
+    <t>ECS-8FM-010-TR,1MHZ</t>
+  </si>
+  <si>
+    <t>CSX750FCC44.00000M-UT,44MHZ</t>
+  </si>
+  <si>
+    <t>ECS-8FMX,49.152MHZ</t>
+  </si>
+  <si>
+    <t>ECS-8FM,1MHZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,26 +1155,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C469EB1-7C4F-44C2-A2B1-C1B425A668CE}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="15" width="49.85546875" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="11" width="33.09765625" customWidth="1"/>
+    <col min="12" max="15" width="49.8984375" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
+    <col min="17" max="17" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -953,9 +1223,11 @@
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1004,8 +1276,11 @@
       <c r="P2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1045,8 +1320,11 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1071,8 +1349,11 @@
       <c r="P4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -1094,8 +1375,11 @@
       <c r="P5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1114,8 +1398,11 @@
       <c r="P6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1134,8 +1421,11 @@
       <c r="P7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1154,8 +1444,11 @@
       <c r="P8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1174,8 +1467,11 @@
       <c r="P9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1194,8 +1490,11 @@
       <c r="P10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1211,8 +1510,11 @@
       <c r="P11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1228,8 +1530,11 @@
       <c r="P12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1239,8 +1544,11 @@
       <c r="I13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -1253,8 +1561,11 @@
       <c r="P14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -1267,8 +1578,11 @@
       <c r="P15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1278,8 +1592,11 @@
       <c r="I16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1292,8 +1609,11 @@
       <c r="P17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1306,8 +1626,11 @@
       <c r="P18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1320,158 +1643,460 @@
       <c r="P19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
       </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
       <c r="P20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
       </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
       <c r="P21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>127</v>
       </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
       <c r="P22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>128</v>
       </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
       <c r="P23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>129</v>
       </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
       <c r="P24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>130</v>
       </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
       <c r="P25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>119</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>140</v>
       </c>
       <c r="B32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>141</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>142</v>
       </c>
       <c r="B34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>145</v>
+      </c>
+      <c r="I37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="I38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="I42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="I43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="I44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="I46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="I47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="I48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/electrocomponents inventory.xlsx
+++ b/electrocomponents inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1057A31C-B2AE-4EB3-A1B0-46F9A3FB60DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74CBE3-62B0-40BC-959F-8067B2C0F73E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
@@ -1850,15 +1850,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1877,15 +1868,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C469EB1-7C4F-44C2-A2B1-C1B425A668CE}">
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2252,79 +2252,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="31" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="34" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="29" t="s">
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="26" t="s">
         <v>539</v>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       <c r="AH2" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="19" t="s">
         <v>540</v>
       </c>
     </row>
@@ -2447,18 +2447,20 @@
         <v>193</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
-        <v>208</v>
+      <c r="G3" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="1">IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
+        <f>IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
  IF(ISNUMBER(SEARCH("nF",G3)), VALUE(LEFT(G3,SEARCH("nF",G3)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G3)), VALUE(LEFT(G3,SEARCH("uF",G3)-1))*1000000,"")))</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
@@ -2513,7 +2515,7 @@
       <c r="AH3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="19" t="s">
         <v>541</v>
       </c>
     </row>
@@ -2529,16 +2531,20 @@
         <v>202</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3" t="s">
-        <v>193</v>
+      <c r="G4" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="H4" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G4)), VALUE(LEFT(G4,SEARCH("pF",G4)-1)),
+ IF(ISNUMBER(SEARCH("nF",G4)), VALUE(LEFT(G4,SEARCH("nF",G4)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G4)), VALUE(LEFT(G4,SEARCH("uF",G4)-1))*1000000,"")))</f>
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>250</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
@@ -2581,7 +2587,7 @@
       <c r="AH4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AI4" s="22" t="s">
+      <c r="AI4" s="19" t="s">
         <v>542</v>
       </c>
     </row>
@@ -2598,15 +2604,19 @@
         <v>316</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="H5" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G5)), VALUE(LEFT(G5,SEARCH("pF",G5)-1)),
+ IF(ISNUMBER(SEARCH("nF",G5)), VALUE(LEFT(G5,SEARCH("nF",G5)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G5)), VALUE(LEFT(G5,SEARCH("uF",G5)-1))*1000000,"")))</f>
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>250</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="3"/>
@@ -2642,7 +2652,7 @@
       <c r="AH5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AI5" s="22" t="s">
+      <c r="AI5" s="19" t="s">
         <v>543</v>
       </c>
     </row>
@@ -2661,16 +2671,20 @@
         <v>344</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="9" t="s">
-        <v>218</v>
+      <c r="G6" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3" t="s">
-        <v>194</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G6)), VALUE(LEFT(G6,SEARCH("pF",G6)-1)),
+ IF(ISNUMBER(SEARCH("nF",G6)), VALUE(LEFT(G6,SEARCH("nF",G6)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G6)), VALUE(LEFT(G6,SEARCH("uF",G6)-1))*1000000,"")))</f>
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2702,7 +2716,7 @@
       <c r="AH6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AI6" s="22" t="s">
+      <c r="AI6" s="19" t="s">
         <v>544</v>
       </c>
     </row>
@@ -2721,16 +2735,20 @@
         <v>334</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3" t="s">
-        <v>220</v>
+      <c r="G7" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="H7" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G7)), VALUE(LEFT(G7,SEARCH("pF",G7)-1)),
+ IF(ISNUMBER(SEARCH("nF",G7)), VALUE(LEFT(G7,SEARCH("nF",G7)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G7)), VALUE(LEFT(G7,SEARCH("uF",G7)-1))*1000000,"")))</f>
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="19">
+        <v>250</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
@@ -2759,7 +2777,7 @@
       <c r="AH7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="AI7" s="19" t="s">
         <v>545</v>
       </c>
     </row>
@@ -2779,15 +2797,17 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G8)), VALUE(LEFT(G8,SEARCH("pF",G8)-1)),
+ IF(ISNUMBER(SEARCH("nF",G8)), VALUE(LEFT(G8,SEARCH("nF",G8)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G8)), VALUE(LEFT(G8,SEARCH("uF",G8)-1))*1000000,"")))</f>
+        <v>1</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2807,15 +2827,15 @@
       <c r="AD8" t="s">
         <v>161</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="AF8" s="22" t="s">
+      <c r="AF8" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22" t="s">
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19" t="s">
         <v>542</v>
       </c>
     </row>
@@ -2832,15 +2852,17 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G9)), VALUE(LEFT(G9,SEARCH("pF",G9)-1)),
+ IF(ISNUMBER(SEARCH("nF",G9)), VALUE(LEFT(G9,SEARCH("nF",G9)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G9)), VALUE(LEFT(G9,SEARCH("uF",G9)-1))*1000000,"")))</f>
+        <v>1</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2860,19 +2882,19 @@
       <c r="AD9" t="s">
         <v>162</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="AF9" s="22" t="s">
+      <c r="AF9" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="AG9" s="22" t="s">
+      <c r="AG9" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="19">
         <v>1206</v>
       </c>
-      <c r="AI9" s="22" t="s">
+      <c r="AI9" s="19" t="s">
         <v>546</v>
       </c>
     </row>
@@ -2891,16 +2913,17 @@
         <v>316</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="9" t="s">
-        <v>227</v>
+      <c r="G10" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3" t="s">
-        <v>194</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G10)), VALUE(LEFT(G10,SEARCH("pF",G10)-1)),
+ IF(ISNUMBER(SEARCH("nF",G10)), VALUE(LEFT(G10,SEARCH("nF",G10)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G10)), VALUE(LEFT(G10,SEARCH("uF",G10)-1))*1000000,"")))</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2920,19 +2943,19 @@
       <c r="AD10" t="s">
         <v>163</v>
       </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AE10" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="AF10" s="22" t="s">
+      <c r="AF10" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="AG10" s="22" t="s">
+      <c r="AG10" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="AH10" s="22">
+      <c r="AH10" s="19">
         <v>1206</v>
       </c>
-      <c r="AI10" s="22" t="s">
+      <c r="AI10" s="19" t="s">
         <v>547</v>
       </c>
     </row>
@@ -2948,16 +2971,20 @@
         <v>196</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>222</v>
+      <c r="G11" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I11" s="4"/>
+        <f>IF(ISNUMBER(SEARCH("pF",G11)), VALUE(LEFT(G11,SEARCH("pF",G11)-1)),
+ IF(ISNUMBER(SEARCH("nF",G11)), VALUE(LEFT(G11,SEARCH("nF",G11)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G11)), VALUE(LEFT(G11,SEARCH("uF",G11)-1))*1000000,"")))</f>
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q11" t="s">
         <v>92</v>
@@ -2974,19 +3001,19 @@
       <c r="AD11" t="s">
         <v>164</v>
       </c>
-      <c r="AE11" s="22" t="s">
+      <c r="AE11" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="AF11" s="22" t="s">
+      <c r="AF11" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="AG11" s="22" t="s">
+      <c r="AG11" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AH11" s="19">
         <v>1206</v>
       </c>
-      <c r="AI11" s="22" t="s">
+      <c r="AI11" s="19" t="s">
         <v>540</v>
       </c>
     </row>
@@ -3003,15 +3030,17 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G12)), VALUE(LEFT(G12,SEARCH("pF",G12)-1)),
+ IF(ISNUMBER(SEARCH("nF",G12)), VALUE(LEFT(G12,SEARCH("nF",G12)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G12)), VALUE(LEFT(G12,SEARCH("uF",G12)-1))*1000000,"")))</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="P12" t="s">
         <v>256</v>
@@ -3031,19 +3060,19 @@
       <c r="AD12" t="s">
         <v>165</v>
       </c>
-      <c r="AE12" s="22" t="s">
+      <c r="AE12" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="AF12" s="22" t="s">
+      <c r="AF12" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="AG12" s="22" t="s">
+      <c r="AG12" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AH12" s="19">
         <v>1206</v>
       </c>
-      <c r="AI12" s="22" t="s">
+      <c r="AI12" s="19" t="s">
         <v>548</v>
       </c>
     </row>
@@ -3059,14 +3088,21 @@
         <v>203</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
+      <c r="G13" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I13" s="5"/>
+        <f>IF(ISNUMBER(SEARCH("pF",G13)), VALUE(LEFT(G13,SEARCH("pF",G13)-1)),
+ IF(ISNUMBER(SEARCH("nF",G13)), VALUE(LEFT(G13,SEARCH("nF",G13)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G13)), VALUE(LEFT(G13,SEARCH("uF",G13)-1))*1000000,"")))</f>
+        <v>3.9</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="P13" t="s">
         <v>257</v>
       </c>
@@ -3079,7 +3115,7 @@
       <c r="AD13" t="s">
         <v>166</v>
       </c>
-      <c r="AI13" s="22" t="s">
+      <c r="AI13" s="19" t="s">
         <v>540</v>
       </c>
     </row>
@@ -3098,16 +3134,20 @@
         <v>316</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="8" t="s">
-        <v>206</v>
+      <c r="G14" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3" t="s">
-        <v>207</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G14)), VALUE(LEFT(G14,SEARCH("pF",G14)-1)),
+ IF(ISNUMBER(SEARCH("nF",G14)), VALUE(LEFT(G14,SEARCH("nF",G14)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G14)), VALUE(LEFT(G14,SEARCH("uF",G14)-1))*1000000,"")))</f>
+        <v>4.7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3127,7 +3167,7 @@
       <c r="AD14" t="s">
         <v>167</v>
       </c>
-      <c r="AI14" s="22" t="s">
+      <c r="AI14" s="19" t="s">
         <v>549</v>
       </c>
     </row>
@@ -3143,15 +3183,19 @@
         <v>202</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3" t="s">
+      <c r="G15" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G15)), VALUE(LEFT(G15,SEARCH("pF",G15)-1)),
+ IF(ISNUMBER(SEARCH("nF",G15)), VALUE(LEFT(G15,SEARCH("nF",G15)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G15)), VALUE(LEFT(G15,SEARCH("uF",G15)-1))*1000000,"")))</f>
+        <v>4.7</v>
+      </c>
+      <c r="I15" s="22">
+        <v>250</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>194</v>
       </c>
       <c r="P15" t="s">
@@ -3187,16 +3231,20 @@
       <c r="F16" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3" t="s">
-        <v>193</v>
+      <c r="G16" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G16)), VALUE(LEFT(G16,SEARCH("pF",G16)-1)),
+ IF(ISNUMBER(SEARCH("nF",G16)), VALUE(LEFT(G16,SEARCH("nF",G16)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G16)), VALUE(LEFT(G16,SEARCH("uF",G16)-1))*1000000,"")))</f>
+        <v>5.6</v>
+      </c>
+      <c r="I16" s="19">
+        <v>50</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3229,15 +3277,19 @@
         <v>194</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3" t="s">
+      <c r="G17" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="H17" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G17)), VALUE(LEFT(G17,SEARCH("pF",G17)-1)),
+ IF(ISNUMBER(SEARCH("nF",G17)), VALUE(LEFT(G17,SEARCH("nF",G17)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G17)), VALUE(LEFT(G17,SEARCH("uF",G17)-1))*1000000,"")))</f>
+        <v>5.6</v>
+      </c>
+      <c r="I17" s="19">
+        <v>250</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>194</v>
       </c>
       <c r="K17" s="3"/>
@@ -3274,15 +3326,19 @@
         <v>316</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3" t="s">
+      <c r="G18" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G18)), VALUE(LEFT(G18,SEARCH("pF",G18)-1)),
+ IF(ISNUMBER(SEARCH("nF",G18)), VALUE(LEFT(G18,SEARCH("nF",G18)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G18)), VALUE(LEFT(G18,SEARCH("uF",G18)-1))*1000000,"")))</f>
+        <v>6.8</v>
+      </c>
+      <c r="I18" s="19">
+        <v>250</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>194</v>
       </c>
       <c r="K18" s="3"/>
@@ -3320,15 +3376,17 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G19)), VALUE(LEFT(G19,SEARCH("pF",G19)-1)),
+ IF(ISNUMBER(SEARCH("nF",G19)), VALUE(LEFT(G19,SEARCH("nF",G19)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G19)), VALUE(LEFT(G19,SEARCH("uF",G19)-1))*1000000,"")))</f>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -3365,13 +3423,18 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="9" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G20)), VALUE(LEFT(G20,SEARCH("pF",G20)-1)),
+ IF(ISNUMBER(SEARCH("nF",G20)), VALUE(LEFT(G20,SEARCH("nF",G20)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G20)), VALUE(LEFT(G20,SEARCH("uF",G20)-1))*1000000,"")))</f>
+        <v>10</v>
       </c>
       <c r="I20" s="5"/>
+      <c r="J20" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -3403,16 +3466,20 @@
         <v>194</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="9" t="s">
-        <v>210</v>
+      <c r="G21" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3" t="s">
-        <v>194</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G21)), VALUE(LEFT(G21,SEARCH("pF",G21)-1)),
+ IF(ISNUMBER(SEARCH("nF",G21)), VALUE(LEFT(G21,SEARCH("nF",G21)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G21)), VALUE(LEFT(G21,SEARCH("uF",G21)-1))*1000000,"")))</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3446,11 +3513,13 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G22)), VALUE(LEFT(G22,SEARCH("pF",G22)-1)),
+ IF(ISNUMBER(SEARCH("nF",G22)), VALUE(LEFT(G22,SEARCH("nF",G22)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G22)), VALUE(LEFT(G22,SEARCH("uF",G22)-1))*1000000,"")))</f>
+        <v>11</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3" t="s">
@@ -3485,11 +3554,13 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G23)), VALUE(LEFT(G23,SEARCH("pF",G23)-1)),
+ IF(ISNUMBER(SEARCH("nF",G23)), VALUE(LEFT(G23,SEARCH("nF",G23)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G23)), VALUE(LEFT(G23,SEARCH("uF",G23)-1))*1000000,"")))</f>
+        <v>13</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3" t="s">
@@ -3524,15 +3595,17 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="9" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>2200000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G24)), VALUE(LEFT(G24,SEARCH("pF",G24)-1)),
+ IF(ISNUMBER(SEARCH("nF",G24)), VALUE(LEFT(G24,SEARCH("nF",G24)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G24)), VALUE(LEFT(G24,SEARCH("uF",G24)-1))*1000000,"")))</f>
+        <v>20</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3562,16 +3635,18 @@
         <v>194</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="9" t="s">
-        <v>230</v>
+      <c r="G25" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>2200000</v>
-      </c>
-      <c r="I25" s="5"/>
+        <f>IF(ISNUMBER(SEARCH("pF",G25)), VALUE(LEFT(G25,SEARCH("pF",G25)-1)),
+ IF(ISNUMBER(SEARCH("nF",G25)), VALUE(LEFT(G25,SEARCH("nF",G25)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G25)), VALUE(LEFT(G25,SEARCH("uF",G25)-1))*1000000,"")))</f>
+        <v>22</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3602,15 +3677,17 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>2200000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G26)), VALUE(LEFT(G26,SEARCH("pF",G26)-1)),
+ IF(ISNUMBER(SEARCH("nF",G26)), VALUE(LEFT(G26,SEARCH("nF",G26)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G26)), VALUE(LEFT(G26,SEARCH("uF",G26)-1))*1000000,"")))</f>
+        <v>22</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3640,16 +3717,20 @@
         <v>316</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="9" t="s">
-        <v>209</v>
+      <c r="G27" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3" t="s">
-        <v>193</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G27)), VALUE(LEFT(G27,SEARCH("pF",G27)-1)),
+ IF(ISNUMBER(SEARCH("nF",G27)), VALUE(LEFT(G27,SEARCH("nF",G27)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G27)), VALUE(LEFT(G27,SEARCH("uF",G27)-1))*1000000,"")))</f>
+        <v>27</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3676,14 +3757,21 @@
         <v>316</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="G28" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="H28" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G28)), VALUE(LEFT(G28,SEARCH("pF",G28)-1)),
+ IF(ISNUMBER(SEARCH("nF",G28)), VALUE(LEFT(G28,SEARCH("nF",G28)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G28)), VALUE(LEFT(G28,SEARCH("uF",G28)-1))*1000000,"")))</f>
+        <v>47</v>
+      </c>
+      <c r="I28" s="19">
+        <v>50</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3709,16 +3797,20 @@
         <v>194</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="3" t="s">
-        <v>193</v>
+      <c r="G29" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H29" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G29)), VALUE(LEFT(G29,SEARCH("pF",G29)-1)),
+ IF(ISNUMBER(SEARCH("nF",G29)), VALUE(LEFT(G29,SEARCH("nF",G29)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G29)), VALUE(LEFT(G29,SEARCH("uF",G29)-1))*1000000,"")))</f>
+        <v>56</v>
+      </c>
+      <c r="I29" s="19">
+        <v>50</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -3745,16 +3837,20 @@
         <v>1206</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>16000000</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="3" t="s">
-        <v>225</v>
+      <c r="G30" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="H30" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G30)), VALUE(LEFT(G30,SEARCH("pF",G30)-1)),
+ IF(ISNUMBER(SEARCH("nF",G30)), VALUE(LEFT(G30,SEARCH("nF",G30)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G30)), VALUE(LEFT(G30,SEARCH("uF",G30)-1))*1000000,"")))</f>
+        <v>68</v>
+      </c>
+      <c r="I30" s="19">
+        <v>50</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3781,14 +3877,21 @@
         <v>194</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>220000000</v>
-      </c>
-      <c r="I31" s="5"/>
+      <c r="G31" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="H31" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G31)), VALUE(LEFT(G31,SEARCH("pF",G31)-1)),
+ IF(ISNUMBER(SEARCH("nF",G31)), VALUE(LEFT(G31,SEARCH("nF",G31)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G31)), VALUE(LEFT(G31,SEARCH("uF",G31)-1))*1000000,"")))</f>
+        <v>68</v>
+      </c>
+      <c r="I31" s="19">
+        <v>50</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3812,16 +3915,15 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="9" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>220000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G32)), VALUE(LEFT(G32,SEARCH("pF",G32)-1)),
+ IF(ISNUMBER(SEARCH("nF",G32)), VALUE(LEFT(G32,SEARCH("nF",G32)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G32)), VALUE(LEFT(G32,SEARCH("uF",G32)-1))*1000000,"")))</f>
+        <v>100</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3847,18 +3949,20 @@
         <v>194</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="9" t="s">
-        <v>232</v>
+      <c r="G33" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>220000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G33)), VALUE(LEFT(G33,SEARCH("pF",G33)-1)),
+ IF(ISNUMBER(SEARCH("nF",G33)), VALUE(LEFT(G33,SEARCH("nF",G33)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G33)), VALUE(LEFT(G33,SEARCH("uF",G33)-1))*1000000,"")))</f>
+        <v>100</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>215</v>
+        <v>371</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="V33" t="s">
         <v>109</v>
@@ -3882,14 +3986,21 @@
         <v>316</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
+      <c r="G34" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>330000000</v>
-      </c>
-      <c r="I34" s="4"/>
+        <f>IF(ISNUMBER(SEARCH("pF",G34)), VALUE(LEFT(G34,SEARCH("pF",G34)-1)),
+ IF(ISNUMBER(SEARCH("nF",G34)), VALUE(LEFT(G34,SEARCH("nF",G34)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G34)), VALUE(LEFT(G34,SEARCH("uF",G34)-1))*1000000,"")))</f>
+        <v>100</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3908,21 +4019,28 @@
         <v>453</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C66" si="2">IF(RIGHT(B35,1)="k", VALUE(LEFT(B35,LEN(B35)-1))*1000, VALUE(B35))</f>
+        <f t="shared" ref="C35:C66" si="1">IF(RIGHT(B35,1)="k", VALUE(LEFT(B35,LEN(B35)-1))*1000, VALUE(B35))</f>
         <v>453</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>194</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>470000000</v>
-      </c>
-      <c r="I35" s="5"/>
+      <c r="G35" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H35" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G35)), VALUE(LEFT(G35,SEARCH("pF",G35)-1)),
+ IF(ISNUMBER(SEARCH("nF",G35)), VALUE(LEFT(G35,SEARCH("nF",G35)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G35)), VALUE(LEFT(G35,SEARCH("uF",G35)-1))*1000000,"")))</f>
+        <v>100</v>
+      </c>
+      <c r="I35" s="19">
+        <v>5</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3935,7 +4053,7 @@
         <v>715</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>715</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -3944,18 +4062,20 @@
       <c r="F36" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
+      <c r="H36" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G36)), VALUE(LEFT(G36,SEARCH("pF",G36)-1)),
+ IF(ISNUMBER(SEARCH("nF",G36)), VALUE(LEFT(G36,SEARCH("nF",G36)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G36)), VALUE(LEFT(G36,SEARCH("uF",G36)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>193</v>
+      <c r="I36" s="19">
+        <v>50</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V36" t="s">
         <v>114</v>
@@ -3966,7 +4086,7 @@
         <v>248</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -3976,17 +4096,19 @@
         <v>372</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G37)), VALUE(LEFT(G37,SEARCH("pF",G37)-1)),
+ IF(ISNUMBER(SEARCH("nF",G37)), VALUE(LEFT(G37,SEARCH("nF",G37)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G37)), VALUE(LEFT(G37,SEARCH("uF",G37)-1))*1000000,"")))</f>
+        <v>390</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>193</v>
+        <v>424</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V37" t="s">
         <v>115</v>
@@ -3997,7 +4119,7 @@
         <v>195</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -4006,18 +4128,20 @@
       <c r="F38" t="s">
         <v>374</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>193</v>
+      <c r="G38" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="H38" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G38)), VALUE(LEFT(G38,SEARCH("pF",G38)-1)),
+ IF(ISNUMBER(SEARCH("nF",G38)), VALUE(LEFT(G38,SEARCH("nF",G38)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G38)), VALUE(LEFT(G38,SEARCH("uF",G38)-1))*1000000,"")))</f>
+        <v>500</v>
+      </c>
+      <c r="I38" s="23">
+        <v>50</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V38" t="s">
         <v>116</v>
@@ -4028,7 +4152,7 @@
         <v>247</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -4038,17 +4162,19 @@
         <v>376</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G39)), VALUE(LEFT(G39,SEARCH("pF",G39)-1)),
+ IF(ISNUMBER(SEARCH("nF",G39)), VALUE(LEFT(G39,SEARCH("nF",G39)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G39)), VALUE(LEFT(G39,SEARCH("uF",G39)-1))*1000000,"")))</f>
+        <v>820</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>193</v>
+      <c r="J39" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V39" t="s">
         <v>117</v>
@@ -4059,7 +4185,7 @@
         <v>246</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
       <c r="E40" s="14" t="s">
@@ -4068,18 +4194,18 @@
       <c r="F40" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>380</v>
+      <c r="G40" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>193</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G40)), VALUE(LEFT(G40,SEARCH("pF",G40)-1)),
+ IF(ISNUMBER(SEARCH("nF",G40)), VALUE(LEFT(G40,SEARCH("nF",G40)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G40)), VALUE(LEFT(G40,SEARCH("uF",G40)-1))*1000000,"")))</f>
+        <v>1000</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="V40" t="s">
         <v>118</v>
@@ -4090,7 +4216,7 @@
         <v>246</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
       <c r="E41" s="14" t="s">
@@ -4099,18 +4225,18 @@
       <c r="F41" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>382</v>
+      <c r="G41" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
-        <v>4700000</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>193</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G41)), VALUE(LEFT(G41,SEARCH("pF",G41)-1)),
+ IF(ISNUMBER(SEARCH("nF",G41)), VALUE(LEFT(G41,SEARCH("nF",G41)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G41)), VALUE(LEFT(G41,SEARCH("uF",G41)-1))*1000000,"")))</f>
+        <v>1000</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V41" t="s">
         <v>119</v>
@@ -4121,7 +4247,7 @@
         <v>246</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
       <c r="E42" s="14" t="s">
@@ -4130,17 +4256,17 @@
       <c r="F42" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>385</v>
+      <c r="G42" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J42" s="20" t="s">
+        <f>IF(ISNUMBER(SEARCH("pF",G42)), VALUE(LEFT(G42,SEARCH("pF",G42)-1)),
+ IF(ISNUMBER(SEARCH("nF",G42)), VALUE(LEFT(G42,SEARCH("nF",G42)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G42)), VALUE(LEFT(G42,SEARCH("uF",G42)-1))*1000000,"")))</f>
+        <v>1000</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="3" t="s">
         <v>193</v>
       </c>
       <c r="V42" t="s">
@@ -4152,7 +4278,7 @@
         <v>245</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="E43" s="14" t="s">
@@ -4161,18 +4287,20 @@
       <c r="F43" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>194</v>
+      <c r="G43" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H43" s="25">
+        <f>IF(ISNUMBER(SEARCH("pF",G43)), VALUE(LEFT(G43,SEARCH("pF",G43)-1)),
+ IF(ISNUMBER(SEARCH("nF",G43)), VALUE(LEFT(G43,SEARCH("nF",G43)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G43)), VALUE(LEFT(G43,SEARCH("uF",G43)-1))*1000000,"")))</f>
+        <v>1000</v>
+      </c>
+      <c r="I43" s="19">
+        <v>50</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="V43" t="s">
         <v>121</v>
@@ -4186,7 +4314,7 @@
         <v>309</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -4196,17 +4324,19 @@
         <v>389</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
-        <v>22000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G44)), VALUE(LEFT(G44,SEARCH("pF",G44)-1)),
+ IF(ISNUMBER(SEARCH("nF",G44)), VALUE(LEFT(G44,SEARCH("nF",G44)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G44)), VALUE(LEFT(G44,SEARCH("uF",G44)-1))*1000000,"")))</f>
+        <v>3300</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>203</v>
+        <v>378</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V44" t="s">
         <v>122</v>
@@ -4220,7 +4350,7 @@
         <v>341</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2210</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -4229,18 +4359,18 @@
       <c r="F45" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>392</v>
+      <c r="G45" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
-        <v>33000000</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>203</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G45)), VALUE(LEFT(G45,SEARCH("pF",G45)-1)),
+ IF(ISNUMBER(SEARCH("nF",G45)), VALUE(LEFT(G45,SEARCH("nF",G45)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G45)), VALUE(LEFT(G45,SEARCH("uF",G45)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V45" t="s">
         <v>123</v>
@@ -4251,7 +4381,7 @@
         <v>192</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3320</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -4260,18 +4390,18 @@
       <c r="F46" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>390</v>
+      <c r="G46" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
-        <v>22000000</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>344</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G46)), VALUE(LEFT(G46,SEARCH("pF",G46)-1)),
+ IF(ISNUMBER(SEARCH("nF",G46)), VALUE(LEFT(G46,SEARCH("nF",G46)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G46)), VALUE(LEFT(G46,SEARCH("uF",G46)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V46" t="s">
         <v>124</v>
@@ -4282,7 +4412,7 @@
         <v>192</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3320</v>
       </c>
       <c r="E47" s="14" t="s">
@@ -4291,18 +4421,20 @@
       <c r="F47" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="1"/>
-        <v>100000000</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>225</v>
+      <c r="G47" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G47)), VALUE(LEFT(G47,SEARCH("pF",G47)-1)),
+ IF(ISNUMBER(SEARCH("nF",G47)), VALUE(LEFT(G47,SEARCH("nF",G47)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G47)), VALUE(LEFT(G47,SEARCH("uF",G47)-1))*1000000,"")))</f>
+        <v>10000</v>
+      </c>
+      <c r="I47" s="19">
+        <v>25</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V47" t="s">
         <v>125</v>
@@ -4313,7 +4445,7 @@
         <v>244</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3920</v>
       </c>
       <c r="E48" s="14" t="s">
@@ -4322,20 +4454,18 @@
       <c r="F48" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>390</v>
+      <c r="G48" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="H48" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G48)), VALUE(LEFT(G48,SEARCH("pF",G48)-1)),
  IF(ISNUMBER(SEARCH("nF",G48)), VALUE(LEFT(G48,SEARCH("nF",G48)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G48)), VALUE(LEFT(G48,SEARCH("uF",G48)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>344</v>
+        <v>100000</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="V48" t="s">
         <v>126</v>
@@ -4349,7 +4479,7 @@
         <v>300</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4750</v>
       </c>
       <c r="E49" s="13" t="s">
@@ -4358,19 +4488,16 @@
       <c r="F49" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>398</v>
+      <c r="G49" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
-        <v>47000000</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>203</v>
-      </c>
+        <f>IF(ISNUMBER(SEARCH("pF",G49)), VALUE(LEFT(G49,SEARCH("pF",G49)-1)),
+ IF(ISNUMBER(SEARCH("nF",G49)), VALUE(LEFT(G49,SEARCH("nF",G49)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G49)), VALUE(LEFT(G49,SEARCH("uF",G49)-1))*1000000,"")))</f>
+        <v>100000</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="V49" t="s">
         <v>127</v>
       </c>
@@ -4380,7 +4507,7 @@
         <v>243</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="E50" s="14" t="s">
@@ -4390,14 +4517,19 @@
         <v>399</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
-        <v>22000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G50)), VALUE(LEFT(G50,SEARCH("pF",G50)-1)),
+ IF(ISNUMBER(SEARCH("nF",G50)), VALUE(LEFT(G50,SEARCH("nF",G50)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G50)), VALUE(LEFT(G50,SEARCH("uF",G50)-1))*1000000,"")))</f>
+        <v>100000</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>383</v>
+        <v>233</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="V50" t="s">
         <v>128</v>
@@ -4408,7 +4540,7 @@
         <v>242</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6650</v>
       </c>
       <c r="E51" s="14" t="s">
@@ -4417,18 +4549,20 @@
       <c r="F51" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>203</v>
+      <c r="G51" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H51" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G51)), VALUE(LEFT(G51,SEARCH("pF",G51)-1)),
+ IF(ISNUMBER(SEARCH("nF",G51)), VALUE(LEFT(G51,SEARCH("nF",G51)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G51)), VALUE(LEFT(G51,SEARCH("uF",G51)-1))*1000000,"")))</f>
+        <v>100000</v>
+      </c>
+      <c r="I51" s="19">
+        <v>50</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V51" t="s">
         <v>129</v>
@@ -4442,7 +4576,7 @@
         <v>306</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7150</v>
       </c>
       <c r="E52" s="13" t="s">
@@ -4451,20 +4585,18 @@
       <c r="F52" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>390</v>
+      <c r="G52" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="H52" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G52)), VALUE(LEFT(G52,SEARCH("pF",G52)-1)),
  IF(ISNUMBER(SEARCH("nF",G52)), VALUE(LEFT(G52,SEARCH("nF",G52)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G52)), VALUE(LEFT(G52,SEARCH("uF",G52)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>220</v>
+        <v>1000000</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V52" t="s">
         <v>130</v>
@@ -4478,7 +4610,7 @@
         <v>306</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7150</v>
       </c>
       <c r="E53" s="13" t="s">
@@ -4487,18 +4619,18 @@
       <c r="F53" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>406</v>
+      <c r="G53" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>220</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G53)), VALUE(LEFT(G53,SEARCH("pF",G53)-1)),
+ IF(ISNUMBER(SEARCH("nF",G53)), VALUE(LEFT(G53,SEARCH("nF",G53)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G53)), VALUE(LEFT(G53,SEARCH("uF",G53)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V53" t="s">
         <v>131</v>
@@ -4509,7 +4641,7 @@
         <v>198</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8060.0000000000009</v>
       </c>
       <c r="E54" s="14" t="s">
@@ -4518,18 +4650,18 @@
       <c r="F54" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>408</v>
+      <c r="G54" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
-        <v>15000000</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>220</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G54)), VALUE(LEFT(G54,SEARCH("pF",G54)-1)),
+ IF(ISNUMBER(SEARCH("nF",G54)), VALUE(LEFT(G54,SEARCH("nF",G54)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G54)), VALUE(LEFT(G54,SEARCH("uF",G54)-1))*1000000,"")))</f>
+        <v>1000000</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V54" t="s">
         <v>132</v>
@@ -4543,7 +4675,7 @@
         <v>289</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8870</v>
       </c>
       <c r="E55" s="13" t="s">
@@ -4553,16 +4685,18 @@
         <v>409</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
-        <v>820</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G55)), VALUE(LEFT(G55,SEARCH("pF",G55)-1)),
+ IF(ISNUMBER(SEARCH("nF",G55)), VALUE(LEFT(G55,SEARCH("nF",G55)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G55)), VALUE(LEFT(G55,SEARCH("uF",G55)-1))*1000000,"")))</f>
+        <v>1000000</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J55" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="J55" s="17" t="s">
         <v>220</v>
       </c>
       <c r="V55" t="s">
@@ -4574,7 +4708,7 @@
         <v>241</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="E56" s="14" t="s">
@@ -4583,18 +4717,18 @@
       <c r="F56" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>412</v>
+      <c r="G56" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>220</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G56)), VALUE(LEFT(G56,SEARCH("pF",G56)-1)),
+ IF(ISNUMBER(SEARCH("nF",G56)), VALUE(LEFT(G56,SEARCH("nF",G56)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G56)), VALUE(LEFT(G56,SEARCH("uF",G56)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="V56" t="s">
         <v>134</v>
@@ -4608,7 +4742,7 @@
         <v>302</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12100</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -4617,18 +4751,18 @@
       <c r="F57" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>414</v>
+      <c r="G57" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>416</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G57)), VALUE(LEFT(G57,SEARCH("pF",G57)-1)),
+ IF(ISNUMBER(SEARCH("nF",G57)), VALUE(LEFT(G57,SEARCH("nF",G57)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G57)), VALUE(LEFT(G57,SEARCH("uF",G57)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V57" t="s">
         <v>135</v>
@@ -4639,7 +4773,7 @@
         <v>240</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16900</v>
       </c>
       <c r="E58" s="14" t="s">
@@ -4648,18 +4782,18 @@
       <c r="F58" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>423</v>
+      <c r="G58" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>220</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G58)), VALUE(LEFT(G58,SEARCH("pF",G58)-1)),
+ IF(ISNUMBER(SEARCH("nF",G58)), VALUE(LEFT(G58,SEARCH("nF",G58)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G58)), VALUE(LEFT(G58,SEARCH("uF",G58)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="V58" t="s">
         <v>136</v>
@@ -4673,7 +4807,7 @@
         <v>294</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17400</v>
       </c>
       <c r="E59" s="13" t="s">
@@ -4682,18 +4816,20 @@
       <c r="F59" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>220</v>
+      <c r="G59" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="H59" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G59)), VALUE(LEFT(G59,SEARCH("pF",G59)-1)),
+ IF(ISNUMBER(SEARCH("nF",G59)), VALUE(LEFT(G59,SEARCH("nF",G59)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G59)), VALUE(LEFT(G59,SEARCH("uF",G59)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="I59" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V59" t="s">
         <v>137</v>
@@ -4707,7 +4843,7 @@
         <v>294</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17400</v>
       </c>
       <c r="E60" s="13" t="s">
@@ -4716,18 +4852,20 @@
       <c r="F60" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>220</v>
+      <c r="G60" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="H60" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G60)), VALUE(LEFT(G60,SEARCH("pF",G60)-1)),
+ IF(ISNUMBER(SEARCH("nF",G60)), VALUE(LEFT(G60,SEARCH("nF",G60)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G60)), VALUE(LEFT(G60,SEARCH("uF",G60)-1))*1000000,"")))</f>
+        <v>2200000</v>
+      </c>
+      <c r="I60" s="19">
+        <v>10</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V60" t="s">
         <v>138</v>
@@ -4738,7 +4876,7 @@
         <v>197</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="E61" s="14" t="s">
@@ -4748,17 +4886,19 @@
         <v>429</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
-        <v>47000000</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G61)), VALUE(LEFT(G61,SEARCH("pF",G61)-1)),
+ IF(ISNUMBER(SEARCH("nF",G61)), VALUE(LEFT(G61,SEARCH("nF",G61)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G61)), VALUE(LEFT(G61,SEARCH("uF",G61)-1))*1000000,"")))</f>
+        <v>4700000</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J61" s="20" t="s">
-        <v>220</v>
+      <c r="J61" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="V61" t="s">
         <v>135</v>
@@ -4772,7 +4912,7 @@
         <v>296</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="E62" s="13" t="s">
@@ -4781,18 +4921,20 @@
       <c r="F62" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>455</v>
+      <c r="G62" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="H62" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G62)), VALUE(LEFT(G62,SEARCH("pF",G62)-1)),
+ IF(ISNUMBER(SEARCH("nF",G62)), VALUE(LEFT(G62,SEARCH("nF",G62)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G62)), VALUE(LEFT(G62,SEARCH("uF",G62)-1))*1000000,"")))</f>
+        <v>4700000</v>
+      </c>
+      <c r="I62" s="19">
+        <v>10</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="V62" t="s">
         <v>139</v>
@@ -4806,7 +4948,7 @@
         <v>325</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="E63" s="14" t="s">
@@ -4815,15 +4957,18 @@
       <c r="F63" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>464</v>
+      <c r="G63" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>371</v>
+        <f>IF(ISNUMBER(SEARCH("pF",G63)), VALUE(LEFT(G63,SEARCH("pF",G63)-1)),
+ IF(ISNUMBER(SEARCH("nF",G63)), VALUE(LEFT(G63,SEARCH("nF",G63)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G63)), VALUE(LEFT(G63,SEARCH("uF",G63)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="V63" t="s">
         <v>140</v>
@@ -4837,28 +4982,25 @@
         <v>298</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="G64" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="H64" s="25">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I64" s="22">
-        <v>5</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>194</v>
-      </c>
+      <c r="G64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G64)), VALUE(LEFT(G64,SEARCH("pF",G64)-1)),
+ IF(ISNUMBER(SEARCH("nF",G64)), VALUE(LEFT(G64,SEARCH("nF",G64)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G64)), VALUE(LEFT(G64,SEARCH("uF",G64)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="V64" t="s">
         <v>141</v>
       </c>
@@ -4871,27 +5013,27 @@
         <v>304</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="G65" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="H65" s="25">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
-      </c>
-      <c r="I65" s="25">
-        <v>250</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>194</v>
+      <c r="G65" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H65" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G65)), VALUE(LEFT(G65,SEARCH("pF",G65)-1)),
+ IF(ISNUMBER(SEARCH("nF",G65)), VALUE(LEFT(G65,SEARCH("nF",G65)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G65)), VALUE(LEFT(G65,SEARCH("uF",G65)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="V65" t="s">
         <v>142</v>
@@ -4902,27 +5044,29 @@
         <v>239</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="G66" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="H66" s="25">
-        <f t="shared" si="1"/>
-        <v>4700000</v>
-      </c>
-      <c r="I66" s="22">
-        <v>10</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>194</v>
+      <c r="G66" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H66" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G66)), VALUE(LEFT(G66,SEARCH("pF",G66)-1)),
+ IF(ISNUMBER(SEARCH("nF",G66)), VALUE(LEFT(G66,SEARCH("nF",G66)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G66)), VALUE(LEFT(G66,SEARCH("uF",G66)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="V66" t="s">
         <v>143</v>
@@ -4936,29 +5080,29 @@
         <v>279</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C98" si="3">IF(RIGHT(B67,1)="k", VALUE(LEFT(B67,LEN(B67)-1))*1000, VALUE(B67))</f>
+        <f t="shared" ref="C67:C84" si="2">IF(RIGHT(B67,1)="k", VALUE(LEFT(B67,LEN(B67)-1))*1000, VALUE(B67))</f>
         <v>30000</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="H67" s="25">
-        <f t="shared" ref="H67:H85" si="4">IF(ISNUMBER(SEARCH("pF",G67)), VALUE(LEFT(G67,SEARCH("pF",G67)-1)),
+      <c r="G67" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H67" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G67)), VALUE(LEFT(G67,SEARCH("pF",G67)-1)),
  IF(ISNUMBER(SEARCH("nF",G67)), VALUE(LEFT(G67,SEARCH("nF",G67)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G67)), VALUE(LEFT(G67,SEARCH("uF",G67)-1))*1000000,"")))</f>
-        <v>2200000</v>
-      </c>
-      <c r="I67" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>194</v>
+        <v>10000000</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="V67" t="s">
         <v>144</v>
@@ -4972,26 +5116,28 @@
         <v>279</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="G68" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="H68" s="25">
-        <f t="shared" si="4"/>
-        <v>2200000</v>
-      </c>
-      <c r="I68" s="22">
-        <v>10</v>
-      </c>
-      <c r="J68" s="26" t="s">
+      <c r="G68" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="H68" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",G68)), VALUE(LEFT(G68,SEARCH("pF",G68)-1)),
+ IF(ISNUMBER(SEARCH("nF",G68)), VALUE(LEFT(G68,SEARCH("nF",G68)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G68)), VALUE(LEFT(G68,SEARCH("uF",G68)-1))*1000000,"")))</f>
+        <v>10000000</v>
+      </c>
+      <c r="I68" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="J68" s="23" t="s">
         <v>194</v>
       </c>
       <c r="V68" t="s">
@@ -5006,27 +5152,29 @@
         <v>279</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="G69" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="H69" s="25">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="I69" s="22">
-        <v>50</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>194</v>
+      <c r="G69" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H69" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G69)), VALUE(LEFT(G69,SEARCH("pF",G69)-1)),
+ IF(ISNUMBER(SEARCH("nF",G69)), VALUE(LEFT(G69,SEARCH("nF",G69)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G69)), VALUE(LEFT(G69,SEARCH("uF",G69)-1))*1000000,"")))</f>
+        <v>15000000</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V69" t="s">
         <v>146</v>
@@ -5037,27 +5185,27 @@
         <v>200</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38300</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="G70" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="H70" s="25">
-        <f t="shared" si="4"/>
-        <v>6.8</v>
-      </c>
-      <c r="I70" s="22">
-        <v>250</v>
-      </c>
-      <c r="J70" s="26" t="s">
-        <v>194</v>
+      <c r="G70" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H70" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G70)), VALUE(LEFT(G70,SEARCH("pF",G70)-1)),
+ IF(ISNUMBER(SEARCH("nF",G70)), VALUE(LEFT(G70,SEARCH("nF",G70)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G70)), VALUE(LEFT(G70,SEARCH("uF",G70)-1))*1000000,"")))</f>
+        <v>16000000</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="V70" t="s">
         <v>147</v>
@@ -5068,27 +5216,29 @@
         <v>199</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47000</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="G71" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="H71" s="25">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-      <c r="I71" s="22">
-        <v>50</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>194</v>
+      <c r="G71" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H71" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G71)), VALUE(LEFT(G71,SEARCH("pF",G71)-1)),
+ IF(ISNUMBER(SEARCH("nF",G71)), VALUE(LEFT(G71,SEARCH("nF",G71)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G71)), VALUE(LEFT(G71,SEARCH("uF",G71)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="V71" t="s">
         <v>148</v>
@@ -5099,27 +5249,29 @@
         <v>238</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60400</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="G72" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="H72" s="25">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="I72" s="22">
-        <v>50</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>194</v>
+      <c r="G72" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H72" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G72)), VALUE(LEFT(G72,SEARCH("pF",G72)-1)),
+ IF(ISNUMBER(SEARCH("nF",G72)), VALUE(LEFT(G72,SEARCH("nF",G72)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G72)), VALUE(LEFT(G72,SEARCH("uF",G72)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="V72" t="s">
         <v>124</v>
@@ -5130,27 +5282,29 @@
         <v>201</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>82000</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G73" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="H73" s="25">
-        <f t="shared" si="4"/>
-        <v>5.6</v>
-      </c>
-      <c r="I73" s="22">
-        <v>50</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>194</v>
+      <c r="G73" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G73)), VALUE(LEFT(G73,SEARCH("pF",G73)-1)),
+ IF(ISNUMBER(SEARCH("nF",G73)), VALUE(LEFT(G73,SEARCH("nF",G73)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G73)), VALUE(LEFT(G73,SEARCH("uF",G73)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="V73" t="s">
         <v>149</v>
@@ -5164,24 +5318,23 @@
         <v>314</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>88700</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="H74" s="25">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="I74" s="22">
-        <v>50</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>194</v>
+      <c r="G74" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H74" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G74)), VALUE(LEFT(G74,SEARCH("pF",G74)-1)),
+ IF(ISNUMBER(SEARCH("nF",G74)), VALUE(LEFT(G74,SEARCH("nF",G74)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G74)), VALUE(LEFT(G74,SEARCH("uF",G74)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="V74" t="s">
         <v>150</v>
@@ -5195,27 +5348,29 @@
         <v>287</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>102000</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="G75" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="H75" s="25">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="I75" s="22">
-        <v>50</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>194</v>
+      <c r="G75" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H75" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G75)), VALUE(LEFT(G75,SEARCH("pF",G75)-1)),
+ IF(ISNUMBER(SEARCH("nF",G75)), VALUE(LEFT(G75,SEARCH("nF",G75)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G75)), VALUE(LEFT(G75,SEARCH("uF",G75)-1))*1000000,"")))</f>
+        <v>22000000</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V75" t="s">
         <v>151</v>
@@ -5229,27 +5384,29 @@
         <v>287</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>102000</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="G76" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="H76" s="25">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="I76" s="26">
-        <v>50</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>194</v>
+      <c r="G76" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H76" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G76)), VALUE(LEFT(G76,SEARCH("pF",G76)-1)),
+ IF(ISNUMBER(SEARCH("nF",G76)), VALUE(LEFT(G76,SEARCH("nF",G76)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G76)), VALUE(LEFT(G76,SEARCH("uF",G76)-1))*1000000,"")))</f>
+        <v>33000000</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="V76" t="s">
         <v>152</v>
@@ -5263,27 +5420,29 @@
         <v>285</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="G77" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="H77" s="25">
-        <f t="shared" si="4"/>
-        <v>10000000</v>
-      </c>
-      <c r="I77" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="J77" s="26" t="s">
-        <v>194</v>
+      <c r="G77" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H77" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G77)), VALUE(LEFT(G77,SEARCH("pF",G77)-1)),
+ IF(ISNUMBER(SEARCH("nF",G77)), VALUE(LEFT(G77,SEARCH("nF",G77)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G77)), VALUE(LEFT(G77,SEARCH("uF",G77)-1))*1000000,"")))</f>
+        <v>47000000</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="V77" t="s">
         <v>153</v>
@@ -5297,27 +5456,29 @@
         <v>332</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140000</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="G78" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H78" s="25">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="I78" s="22">
-        <v>25</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>194</v>
+      <c r="G78" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H78" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G78)), VALUE(LEFT(G78,SEARCH("pF",G78)-1)),
+ IF(ISNUMBER(SEARCH("nF",G78)), VALUE(LEFT(G78,SEARCH("nF",G78)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G78)), VALUE(LEFT(G78,SEARCH("uF",G78)-1))*1000000,"")))</f>
+        <v>47000000</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="V78" t="s">
         <v>459</v>
@@ -5331,27 +5492,29 @@
         <v>283</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="G79" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H79" s="25">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I79" s="22">
-        <v>50</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>194</v>
+      <c r="G79" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H79" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G79)), VALUE(LEFT(G79,SEARCH("pF",G79)-1)),
+ IF(ISNUMBER(SEARCH("nF",G79)), VALUE(LEFT(G79,SEARCH("nF",G79)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G79)), VALUE(LEFT(G79,SEARCH("uF",G79)-1))*1000000,"")))</f>
+        <v>100000000</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5362,55 +5525,52 @@
         <v>328</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="G80" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="H80" s="25">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="I80" s="22">
-        <v>250</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>194</v>
-      </c>
+      <c r="G80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G80)), VALUE(LEFT(G80,SEARCH("pF",G80)-1)),
+ IF(ISNUMBER(SEARCH("nF",G80)), VALUE(LEFT(G80,SEARCH("nF",G80)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G80)), VALUE(LEFT(G80,SEARCH("uF",G80)-1))*1000000,"")))</f>
+        <v>220000000</v>
+      </c>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:15">
       <c r="B81" s="7" t="s">
         <v>237</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>191000</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="G81" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="H81" s="25">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="I81" s="22">
-        <v>250</v>
-      </c>
-      <c r="J81" s="26" t="s">
-        <v>194</v>
+      <c r="G81" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G81)), VALUE(LEFT(G81,SEARCH("pF",G81)-1)),
+ IF(ISNUMBER(SEARCH("nF",G81)), VALUE(LEFT(G81,SEARCH("nF",G81)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G81)), VALUE(LEFT(G81,SEARCH("uF",G81)-1))*1000000,"")))</f>
+        <v>220000000</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5418,31 +5578,33 @@
         <v>236</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="G82" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="H82" s="25">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="I82" s="22">
-        <v>250</v>
-      </c>
-      <c r="J82" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
+      <c r="G82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H82" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G82)), VALUE(LEFT(G82,SEARCH("pF",G82)-1)),
+ IF(ISNUMBER(SEARCH("nF",G82)), VALUE(LEFT(G82,SEARCH("nF",G82)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G82)), VALUE(LEFT(G82,SEARCH("uF",G82)-1))*1000000,"")))</f>
+        <v>220000000</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
@@ -5452,62 +5614,56 @@
         <v>330</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>249000</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="G83" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="H83" s="25">
-        <f t="shared" si="4"/>
-        <v>5.6</v>
-      </c>
-      <c r="I83" s="22">
-        <v>250</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G83)), VALUE(LEFT(G83,SEARCH("pF",G83)-1)),
+ IF(ISNUMBER(SEARCH("nF",G83)), VALUE(LEFT(G83,SEARCH("nF",G83)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G83)), VALUE(LEFT(G83,SEARCH("uF",G83)-1))*1000000,"")))</f>
+        <v>330000000</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15">
       <c r="B84" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="G84" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="H84" s="28">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="I84" s="22">
-        <v>50</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
+      <c r="G84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",G84)), VALUE(LEFT(G84,SEARCH("pF",G84)-1)),
+ IF(ISNUMBER(SEARCH("nF",G84)), VALUE(LEFT(G84,SEARCH("nF",G84)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",G84)), VALUE(LEFT(G84,SEARCH("uF",G84)-1))*1000000,"")))</f>
+        <v>470000000</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
@@ -5523,14 +5679,14 @@
       <c r="E85" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
@@ -5546,14 +5702,14 @@
       <c r="E86" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
@@ -5563,7 +5719,7 @@
         <v>3.16</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:C130" si="5">IF(RIGHT(B87,1)="K",VALUE(LEFT(B87,LEN(B87)-1))*1000,VALUE(B87))</f>
+        <f t="shared" ref="C87:C130" si="3">IF(RIGHT(B87,1)="K",VALUE(LEFT(B87,LEN(B87)-1))*1000,VALUE(B87))</f>
         <v>3.16</v>
       </c>
     </row>
@@ -5575,7 +5731,7 @@
         <v>349</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
       <c r="E88" s="13" t="s">
@@ -5590,7 +5746,7 @@
         <v>349</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
       <c r="E89" s="13" t="s">
@@ -5605,7 +5761,7 @@
         <v>150</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="E90" s="13" t="s">
@@ -5620,7 +5776,7 @@
         <v>113</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="E91" s="13" t="s">
@@ -5635,7 +5791,7 @@
         <v>354</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4990</v>
       </c>
       <c r="E92" s="13" t="s">
@@ -5650,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E93" s="13" t="s">
@@ -5665,7 +5821,7 @@
         <v>402</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="E94" s="13" t="s">
@@ -5680,7 +5836,7 @@
         <v>358</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="E95" s="13" t="s">
@@ -5695,7 +5851,7 @@
         <v>267</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>267</v>
       </c>
       <c r="E96" s="13" t="s">
@@ -5710,7 +5866,7 @@
         <v>51</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="E97" s="13" t="s">
@@ -5725,7 +5881,7 @@
         <v>362</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="E98" s="13" t="s">
@@ -5740,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E99" s="13" t="s">
@@ -5755,7 +5911,7 @@
         <v>56</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -5767,7 +5923,7 @@
         <v>220</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="E101" s="13" t="s">
@@ -5782,7 +5938,7 @@
         <v>367</v>
       </c>
       <c r="C102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="E102" s="13" t="s">
@@ -5797,7 +5953,7 @@
         <v>100</v>
       </c>
       <c r="C103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E103" s="13" t="s">
@@ -5812,7 +5968,7 @@
         <v>296</v>
       </c>
       <c r="C104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="E104" s="13" t="s">
@@ -5827,7 +5983,7 @@
         <v>419</v>
       </c>
       <c r="C105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8450</v>
       </c>
       <c r="E105" s="13" t="s">
@@ -5842,7 +5998,7 @@
         <v>419</v>
       </c>
       <c r="C106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8450</v>
       </c>
       <c r="E106" s="13" t="s">
@@ -5857,7 +6013,7 @@
         <v>56.2</v>
       </c>
       <c r="C107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>56.2</v>
       </c>
       <c r="E107" s="13" t="s">
@@ -5872,7 +6028,7 @@
         <v>442</v>
       </c>
       <c r="C108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>95300</v>
       </c>
       <c r="E108" s="13" t="s">
@@ -5884,7 +6040,7 @@
         <v>450</v>
       </c>
       <c r="C109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5896,7 +6052,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E110" s="13" t="s">
@@ -5911,7 +6067,7 @@
         <v>88</v>
       </c>
       <c r="C111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="E111" s="13" t="s">
@@ -5926,7 +6082,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E112" s="13" t="s">
@@ -5941,7 +6097,7 @@
         <v>500</v>
       </c>
       <c r="C113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="E113" s="13" t="s">
@@ -5956,7 +6112,7 @@
         <v>200</v>
       </c>
       <c r="C114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E114" s="13" t="s">
@@ -5971,7 +6127,7 @@
         <v>150</v>
       </c>
       <c r="C115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="E115" s="13" t="s">
@@ -5979,374 +6135,374 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B116" s="19">
         <v>0</v>
       </c>
-      <c r="C116" s="22">
-        <f t="shared" si="5"/>
+      <c r="C116" s="19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="23" t="s">
+      <c r="D116" s="19"/>
+      <c r="E116" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="22">
+      <c r="B117" s="19">
         <v>91</v>
       </c>
-      <c r="C117" s="22">
-        <f t="shared" si="5"/>
+      <c r="C117" s="19">
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="23" t="s">
+      <c r="D117" s="19"/>
+      <c r="E117" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="19">
         <v>165</v>
       </c>
-      <c r="C118" s="22">
-        <f t="shared" si="5"/>
+      <c r="C118" s="19">
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="E118" s="24">
+      <c r="D118" s="19"/>
+      <c r="E118" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B119" s="22">
+      <c r="B119" s="19">
         <v>0</v>
       </c>
-      <c r="C119" s="22">
-        <f t="shared" si="5"/>
+      <c r="C119" s="19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D119" s="22"/>
-      <c r="E119" s="24"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="21"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="C120" s="22">
-        <f t="shared" si="5"/>
+      <c r="C120" s="19">
+        <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="23" t="s">
+      <c r="D120" s="19"/>
+      <c r="E120" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C121" s="22" t="e">
-        <f t="shared" si="5"/>
+      <c r="C121" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="23" t="s">
+      <c r="D121" s="19"/>
+      <c r="E121" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B122" s="22">
+      <c r="B122" s="19">
         <v>287</v>
       </c>
-      <c r="C122" s="22">
-        <f t="shared" si="5"/>
+      <c r="C122" s="19">
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
-      <c r="D122" s="22"/>
-      <c r="E122" s="23" t="s">
+      <c r="D122" s="19"/>
+      <c r="E122" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B123" s="22">
+      <c r="B123" s="19">
         <v>43.2</v>
       </c>
-      <c r="C123" s="22">
-        <f t="shared" si="5"/>
+      <c r="C123" s="19">
+        <f t="shared" si="3"/>
         <v>43.2</v>
       </c>
-      <c r="D123" s="22"/>
-      <c r="E123" s="23" t="s">
+      <c r="D123" s="19"/>
+      <c r="E123" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="B124" s="22">
+      <c r="B124" s="19">
         <v>3.9</v>
       </c>
-      <c r="C124" s="22">
-        <f t="shared" si="5"/>
+      <c r="C124" s="19">
+        <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="23" t="s">
+      <c r="D124" s="19"/>
+      <c r="E124" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C125" s="22">
-        <f t="shared" si="5"/>
+      <c r="C125" s="19">
+        <f t="shared" si="3"/>
         <v>41200</v>
       </c>
-      <c r="D125" s="22"/>
-      <c r="E125" s="23" t="s">
+      <c r="D125" s="19"/>
+      <c r="E125" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B126" s="19">
         <v>243</v>
       </c>
-      <c r="C126" s="22">
-        <f t="shared" si="5"/>
+      <c r="C126" s="19">
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="24">
+      <c r="D126" s="19"/>
+      <c r="E126" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B127" s="22">
+      <c r="B127" s="19">
         <v>47</v>
       </c>
-      <c r="C127" s="22">
-        <f t="shared" si="5"/>
+      <c r="C127" s="19">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="24">
+      <c r="D127" s="19"/>
+      <c r="E127" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C128" s="22">
-        <f t="shared" si="5"/>
+      <c r="C128" s="19">
+        <f t="shared" si="3"/>
         <v>62000</v>
       </c>
-      <c r="D128" s="22"/>
-      <c r="E128" s="23" t="s">
+      <c r="D128" s="19"/>
+      <c r="E128" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="B129" s="22">
+      <c r="B129" s="19">
         <v>470</v>
       </c>
-      <c r="C129" s="22">
-        <f t="shared" si="5"/>
+      <c r="C129" s="19">
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="24">
+      <c r="D129" s="19"/>
+      <c r="E129" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="C130" s="22">
-        <f t="shared" si="5"/>
+      <c r="C130" s="19">
+        <f t="shared" si="3"/>
         <v>2870</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="23" t="s">
+      <c r="D130" s="19"/>
+      <c r="E130" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="19">
         <f>IF(RIGHT(B131,1)="K",VALUE(LEFT(B131,LEN(B131)-1))*1000,VALUE(B131))</f>
         <v>4990</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="23" t="s">
+      <c r="D131" s="19"/>
+      <c r="E131" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="19">
         <f>IF(RIGHT(B132,1)="K",VALUE(LEFT(B132,LEN(B132)-1))*1000,VALUE(B132))</f>
         <v>1000</v>
       </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="24">
+      <c r="D132" s="19"/>
+      <c r="E132" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="19">
         <v>10</v>
       </c>
-      <c r="C133" s="22">
-        <f t="shared" ref="C133:C138" si="6">IF(RIGHT(B133,1)="K",VALUE(LEFT(B133,LEN(B133)-1))*1000,VALUE(B133))</f>
+      <c r="C133" s="19">
+        <f t="shared" ref="C133:C138" si="4">IF(RIGHT(B133,1)="K",VALUE(LEFT(B133,LEN(B133)-1))*1000,VALUE(B133))</f>
         <v>10</v>
       </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="23" t="s">
+      <c r="D133" s="19"/>
+      <c r="E133" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B134" s="19">
         <v>60.4</v>
       </c>
-      <c r="C134" s="22">
-        <f t="shared" si="6"/>
+      <c r="C134" s="19">
+        <f t="shared" si="4"/>
         <v>60.4</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="24">
+      <c r="D134" s="19"/>
+      <c r="E134" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C135" s="22">
-        <f t="shared" si="6"/>
+      <c r="C135" s="19">
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D135" s="22"/>
-      <c r="E135" s="23" t="s">
+      <c r="D135" s="19"/>
+      <c r="E135" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C136" s="22">
-        <f t="shared" si="6"/>
+      <c r="C136" s="19">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="D136" s="22"/>
-      <c r="E136" s="23" t="s">
+      <c r="D136" s="19"/>
+      <c r="E136" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="19">
         <v>100</v>
       </c>
-      <c r="C137" s="22">
-        <f t="shared" si="6"/>
+      <c r="C137" s="19">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="D137" s="22"/>
-      <c r="E137" s="24">
+      <c r="D137" s="19"/>
+      <c r="E137" s="21">
         <v>1206</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="22">
-        <f t="shared" si="6"/>
+      <c r="C138" s="19">
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="D138" s="22"/>
-      <c r="E138" s="23" t="s">
+      <c r="D138" s="19"/>
+      <c r="E138" s="20" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E85">
-    <sortCondition ref="C3:C85"/>
+  <sortState ref="G3:J84">
+    <sortCondition ref="H3:H84"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="AE1:AH1"/>

--- a/electrocomponents inventory.xlsx
+++ b/electrocomponents inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74CBE3-62B0-40BC-959F-8067B2C0F73E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1B60-94E6-4D48-95B5-41B0985EB629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="616">
   <si>
     <t>capacitors</t>
   </si>
@@ -44,9 +44,6 @@
     <t>misc</t>
   </si>
   <si>
-    <t>10 uF</t>
-  </si>
-  <si>
     <t>RF LVA-123+</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>220 uF</t>
   </si>
   <si>
-    <t>470 uF</t>
-  </si>
-  <si>
-    <t>330 uF</t>
-  </si>
-  <si>
     <t>BLK</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t>resistors(ohm)</t>
   </si>
   <si>
-    <t>inductance</t>
-  </si>
-  <si>
     <t>multiplier</t>
   </si>
   <si>
@@ -296,9 +284,6 @@
     <t>TPS73501QDRBRQ1</t>
   </si>
   <si>
-    <t>0.1 uf</t>
-  </si>
-  <si>
     <t>TGA 4705-FC</t>
   </si>
   <si>
@@ -650,33 +635,9 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">1000 pF </t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 pF </t>
   </si>
   <si>
-    <t xml:space="preserve">10 uF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 uF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 uF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 uF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 pF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 uF </t>
-  </si>
-  <si>
     <t>2824</t>
   </si>
   <si>
@@ -701,37 +662,13 @@
     <t xml:space="preserve">22pf </t>
   </si>
   <si>
-    <t xml:space="preserve">1 uf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 pf </t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 uf </t>
-  </si>
-  <si>
     <t xml:space="preserve">20 pf </t>
   </si>
   <si>
     <t>1608</t>
   </si>
   <si>
-    <t xml:space="preserve">10000pf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 uf </t>
-  </si>
-  <si>
     <t>T495E227KO16ATE100</t>
-  </si>
-  <si>
-    <t>220uf</t>
-  </si>
-  <si>
-    <t>16V</t>
   </si>
   <si>
     <t>634k</t>
@@ -1207,18 +1144,9 @@
     <t>CRM155R60J475ME47D</t>
   </si>
   <si>
-    <t>4.7UF</t>
-  </si>
-  <si>
-    <t>6.3V</t>
-  </si>
-  <si>
     <t>0402YC104MAT2A</t>
   </si>
   <si>
-    <t>0.1UF</t>
-  </si>
-  <si>
     <t>251R14S4R7CV4T</t>
   </si>
   <si>
@@ -1228,48 +1156,27 @@
     <t>250V</t>
   </si>
   <si>
-    <t>CC120MKX5R7BB226</t>
-  </si>
-  <si>
-    <t>22UF</t>
-  </si>
-  <si>
     <t>C3216X5R1C336M</t>
   </si>
   <si>
-    <t>33UF</t>
-  </si>
-  <si>
     <t>GRM32ER61E226KE15L</t>
   </si>
   <si>
     <t>TAJW107K006RNJ</t>
   </si>
   <si>
-    <t>100UF</t>
-  </si>
-  <si>
     <t>TMK325B7226KMHP</t>
   </si>
   <si>
     <t>C3216X5R1E476M160AC</t>
   </si>
   <si>
-    <t>47UF</t>
-  </si>
-  <si>
     <t>EEE-FC0J220R</t>
   </si>
   <si>
     <t>GMK316F106ZL-T</t>
   </si>
   <si>
-    <t>10UF</t>
-  </si>
-  <si>
-    <t>35V</t>
-  </si>
-  <si>
     <t>30V</t>
   </si>
   <si>
@@ -1285,21 +1192,12 @@
     <t>C2012X5R1V156M125AC</t>
   </si>
   <si>
-    <t>15UF</t>
-  </si>
-  <si>
     <t>C0805C821J5GACTU</t>
   </si>
   <si>
-    <t>820PF</t>
-  </si>
-  <si>
     <t>GRM2165C1H332JA01D</t>
   </si>
   <si>
-    <t>3300PF</t>
-  </si>
-  <si>
     <t>SQCAEM0R1BAJME</t>
   </si>
   <si>
@@ -1330,18 +1228,9 @@
     <t>ECJ-2VC1H391J</t>
   </si>
   <si>
-    <t>390pf</t>
-  </si>
-  <si>
-    <t>50v</t>
-  </si>
-  <si>
     <t>C0805C105K4RACTU</t>
   </si>
   <si>
-    <t>1.0UF</t>
-  </si>
-  <si>
     <t>ECJ-2VC1H270J</t>
   </si>
   <si>
@@ -1426,9 +1315,6 @@
     <t>F951C106MSAAQ2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ADG719BRTZ-REEL7</t>
   </si>
   <si>
@@ -1561,15 +1447,9 @@
     <t>CL10A475KP8NNNC</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
     <t>GRM188R60J225KE19D</t>
   </si>
   <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
     <t>LMK107BJ225KA-T</t>
   </si>
   <si>
@@ -1588,9 +1468,6 @@
     <t>GRM188R71H104KA93D</t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>C0603C560J5GACTU</t>
   </si>
   <si>
@@ -1615,15 +1492,6 @@
     <t>CC0603KRX7R9BB501</t>
   </si>
   <si>
-    <t>500pF</t>
-  </si>
-  <si>
-    <t>C16088X5ROJ106K080AB</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>ECJ-1VB1E103K</t>
   </si>
   <si>
@@ -1639,9 +1507,6 @@
     <t>0.9pF</t>
   </si>
   <si>
-    <t>251R14SOR2AV4T</t>
-  </si>
-  <si>
     <t>0.2pF</t>
   </si>
   <si>
@@ -1651,9 +1516,6 @@
     <t>GRM155R71H102KA01D</t>
   </si>
   <si>
-    <t>1000pF</t>
-  </si>
-  <si>
     <t>MF--NSMF035-2</t>
   </si>
   <si>
@@ -1709,13 +1571,371 @@
   </si>
   <si>
     <t>TS5A23159RSER</t>
+  </si>
+  <si>
+    <t>inductor</t>
+  </si>
+  <si>
+    <t>LQW18AN12NJ00D</t>
+  </si>
+  <si>
+    <t>12 nh</t>
+  </si>
+  <si>
+    <t>LQP03TG0N4B02D</t>
+  </si>
+  <si>
+    <t>0.4NH</t>
+  </si>
+  <si>
+    <t>BLM21PG221SN1D</t>
+  </si>
+  <si>
+    <t>MLK1005SR15J</t>
+  </si>
+  <si>
+    <t>3.58NH</t>
+  </si>
+  <si>
+    <t>IHHP1008ABER1R5M01</t>
+  </si>
+  <si>
+    <t>1.5UH</t>
+  </si>
+  <si>
+    <t>SRR7045-102M</t>
+  </si>
+  <si>
+    <t>1000 UH</t>
+  </si>
+  <si>
+    <t>NLCV32T-R10M-PFR</t>
+  </si>
+  <si>
+    <t>100NH</t>
+  </si>
+  <si>
+    <t>VLP8040T-2R2N</t>
+  </si>
+  <si>
+    <t>2.2UH</t>
+  </si>
+  <si>
+    <t>SRP4020TA-1R5M</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>4.5 A</t>
+  </si>
+  <si>
+    <t>1624112-8</t>
+  </si>
+  <si>
+    <t>68 NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 mA </t>
+  </si>
+  <si>
+    <t>L-14C39NJV4T</t>
+  </si>
+  <si>
+    <t>39NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 mA </t>
+  </si>
+  <si>
+    <t>12NH</t>
+  </si>
+  <si>
+    <t>BLM21BD272SN1L</t>
+  </si>
+  <si>
+    <t>LQW18AN8N2D00D</t>
+  </si>
+  <si>
+    <t>8.2 NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650 mA </t>
+  </si>
+  <si>
+    <t>B82496C3121J</t>
+  </si>
+  <si>
+    <t>120NH</t>
+  </si>
+  <si>
+    <t>0.16A</t>
+  </si>
+  <si>
+    <t>MLF2012A3R3KT000</t>
+  </si>
+  <si>
+    <t>3.3UH</t>
+  </si>
+  <si>
+    <t>L0603C1N0SRMST</t>
+  </si>
+  <si>
+    <t>1NH</t>
+  </si>
+  <si>
+    <t>300mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600mA </t>
+  </si>
+  <si>
+    <t>EPL2014-472MLB</t>
+  </si>
+  <si>
+    <t>BLM21AG221BH1D</t>
+  </si>
+  <si>
+    <t>LQW18ANR10J00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 mA </t>
+  </si>
+  <si>
+    <t>LQW18AN5N6D00D</t>
+  </si>
+  <si>
+    <t>5.6 NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750 mA </t>
+  </si>
+  <si>
+    <t>cim21j222ne</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>Ferrite bead</t>
+  </si>
+  <si>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>footsize</t>
+  </si>
+  <si>
+    <t>LQW18AN2N2D00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN2N2D10D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN12NJ00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN36NG00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN68NJ00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLK1005SR15JT000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLK1005S22NJT000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B82496C3270J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18ANR10J00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN43NJ00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B82496C3479J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP15MN22NGO2D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN30NG00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW18AN8N2D00D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI404R1-R15-R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRN6045-220M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>220 UH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-14C39NJV4T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-14C18NJV4T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1624112-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1812-103K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10UH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>47 pF</t>
+  </si>
+  <si>
+    <t>68 pF</t>
+  </si>
+  <si>
+    <t>10 pF</t>
+  </si>
+  <si>
+    <t>251R14S0R2AV4T</t>
+  </si>
+  <si>
+    <t>0.2 pF</t>
+  </si>
+  <si>
+    <t>0.3 pF</t>
+  </si>
+  <si>
+    <t>0.9 pF</t>
+  </si>
+  <si>
+    <t>4.7 pF</t>
+  </si>
+  <si>
+    <t>5.6 pF</t>
+  </si>
+  <si>
+    <t>6.8 pF</t>
+  </si>
+  <si>
+    <t>3 pF</t>
+  </si>
+  <si>
+    <t>56 pF</t>
+  </si>
+  <si>
+    <t>1.0 µF</t>
+  </si>
+  <si>
+    <t>820 pF</t>
+  </si>
+  <si>
+    <t>C1608X5R0J106K080AB</t>
+  </si>
+  <si>
+    <t>10 µF</t>
+  </si>
+  <si>
+    <t>15 µF</t>
+  </si>
+  <si>
+    <t>33 µF</t>
+  </si>
+  <si>
+    <t>47 µF</t>
+  </si>
+  <si>
+    <t>500 pF</t>
+  </si>
+  <si>
+    <t>CC1206MKX5R7BB226</t>
+  </si>
+  <si>
+    <t>22 µF</t>
+  </si>
+  <si>
+    <t>4.7 µF</t>
+  </si>
+  <si>
+    <t>1.8 pF</t>
+  </si>
+  <si>
+    <t>10 nF</t>
+  </si>
+  <si>
+    <t>27 pF</t>
+  </si>
+  <si>
+    <t>390 pF</t>
+  </si>
+  <si>
+    <t>SMD Can</t>
+  </si>
+  <si>
+    <t>3216 (A)</t>
+  </si>
+  <si>
+    <t>1.0 nF</t>
+  </si>
+  <si>
+    <t>2.2 µF</t>
+  </si>
+  <si>
+    <t>3.3 nF</t>
+  </si>
+  <si>
+    <t>0.1 pF</t>
+  </si>
+  <si>
+    <t>1210 (W)</t>
+  </si>
+  <si>
+    <t>100 µF</t>
+  </si>
+  <si>
+    <t>Trimmer</t>
+  </si>
+  <si>
+    <t>1 pF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1956,26 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1806,7 +2046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1866,7 +2106,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1874,6 +2113,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2220,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C469EB1-7C4F-44C2-A2B1-C1B425A668CE}">
-  <dimension ref="A1:AI138"/>
+  <dimension ref="A1:AN143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2236,7 +2490,9 @@
     <col min="7" max="7" width="10.8984375" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="13" width="18.69921875" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="13" width="18.69921875" customWidth="1"/>
     <col min="14" max="14" width="15.69921875" customWidth="1"/>
     <col min="15" max="15" width="20.5" customWidth="1"/>
     <col min="16" max="16" width="14.8984375" customWidth="1"/>
@@ -2249,193 +2505,212 @@
     <col min="30" max="30" width="33.59765625" customWidth="1"/>
     <col min="31" max="31" width="18.8984375" customWidth="1"/>
     <col min="35" max="35" width="15.59765625" customWidth="1"/>
+    <col min="36" max="36" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="27" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="30" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ1" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" t="s">
+        <v>521</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="32" t="s">
+      <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>423</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>461</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
-        <v>70</v>
-      </c>
       <c r="AC2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AE2" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="AF2" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="AG2" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="AH2" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>494</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="B3" s="7">
         <v>0</v>
       </c>
@@ -2444,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="H3" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
@@ -2457,69 +2732,78 @@
         <v>0.1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="AF3" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="AG3" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>495</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK3">
+        <v>220</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="B4" s="7">
         <v>0</v>
       </c>
@@ -2528,72 +2812,81 @@
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="19" t="s">
-        <v>527</v>
+        <v>197</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>611</v>
       </c>
       <c r="H4" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G4)), VALUE(LEFT(G4,SEARCH("pF",G4)-1)),
  IF(ISNUMBER(SEARCH("nF",G4)), VALUE(LEFT(G4,SEARCH("nF",G4)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G4)), VALUE(LEFT(G4,SEARCH("uF",G4)-1))*1000000,"")))</f>
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>250</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>194</v>
+ IF(ISNUMBER(SEARCH("µF",G4)), VALUE(LEFT(G4,SEARCH("µF",G4)-1))*1000000,"")))</f>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="15">
+        <v>505</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE4" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="AF4" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="AG4" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>496</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK4">
+        <v>2700</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
@@ -2601,64 +2894,80 @@
         <v>0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="19" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="H5" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G5)), VALUE(LEFT(G5,SEARCH("pF",G5)-1)),
+        <f t="shared" ref="H5:H11" si="1">IF(ISNUMBER(SEARCH("pF",G5)), VALUE(LEFT(G5,SEARCH("pF",G5)-1)),
  IF(ISNUMBER(SEARCH("nF",G5)), VALUE(LEFT(G5,SEARCH("nF",G5)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G5)), VALUE(LEFT(G5,SEARCH("uF",G5)-1))*1000000,"")))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="19">
         <v>250</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>506</v>
+      </c>
       <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AE5" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="AF5" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="AG5" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>497</v>
+      </c>
+      <c r="AJ5" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="AK5">
+        <v>220</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2668,61 +2977,72 @@
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H6" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G6)), VALUE(LEFT(G6,SEARCH("pF",G6)-1)),
- IF(ISNUMBER(SEARCH("nF",G6)), VALUE(LEFT(G6,SEARCH("nF",G6)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G6)), VALUE(LEFT(G6,SEARCH("uF",G6)-1))*1000000,"")))</f>
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13">
+        <v>603</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>508</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AE6" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="AF6" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="AG6" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI6" s="19" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>498</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK6">
+        <v>220</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B7">
         <v>4.12</v>
@@ -2732,58 +3052,62 @@
         <v>4.12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="19" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="H7" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G7)), VALUE(LEFT(G7,SEARCH("pF",G7)-1)),
- IF(ISNUMBER(SEARCH("nF",G7)), VALUE(LEFT(G7,SEARCH("nF",G7)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G7)), VALUE(LEFT(G7,SEARCH("uF",G7)-1))*1000000,"")))</f>
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="I7" s="19">
         <v>250</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>511</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AE7" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="AF7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="AG7" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>4.99</v>
@@ -2793,53 +3117,57 @@
         <v>4.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G8)), VALUE(LEFT(G8,SEARCH("pF",G8)-1)),
- IF(ISNUMBER(SEARCH("nF",G8)), VALUE(LEFT(G8,SEARCH("nF",G8)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G8)), VALUE(LEFT(G8,SEARCH("uF",G8)-1))*1000000,"")))</f>
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="13">
+        <v>603</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>513</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="B9" s="7">
         <v>10</v>
       </c>
@@ -2848,59 +3176,63 @@
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>208</v>
+      <c r="G9" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G9)), VALUE(LEFT(G9,SEARCH("pF",G9)-1)),
- IF(ISNUMBER(SEARCH("nF",G9)), VALUE(LEFT(G9,SEARCH("nF",G9)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G9)), VALUE(LEFT(G9,SEARCH("uF",G9)-1))*1000000,"")))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>515</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="AH9" s="19">
         <v>1206</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B10" s="2">
         <v>13</v>
@@ -2910,56 +3242,61 @@
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="H10" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G10)), VALUE(LEFT(G10,SEARCH("pF",G10)-1)),
- IF(ISNUMBER(SEARCH("nF",G10)), VALUE(LEFT(G10,SEARCH("nF",G10)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G10)), VALUE(LEFT(G10,SEARCH("uF",G10)-1))*1000000,"")))</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="19">
+        <v>250</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>517</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AD10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="AF10" s="19" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="AH10" s="19">
         <v>1206</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="B11" s="7">
         <v>15</v>
       </c>
@@ -2968,56 +3305,60 @@
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H11" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G11)), VALUE(LEFT(G11,SEARCH("pF",G11)-1)),
- IF(ISNUMBER(SEARCH("nF",G11)), VALUE(LEFT(G11,SEARCH("nF",G11)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G11)), VALUE(LEFT(G11,SEARCH("uF",G11)-1))*1000000,"")))</f>
-        <v>1.8</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="13">
+        <v>603</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>519</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="AH11" s="19">
         <v>1206</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="B12" s="7">
         <v>16.5</v>
       </c>
@@ -3026,57 +3367,68 @@
         <v>16.5</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="1">
+        <v>188</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="H12" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G12)), VALUE(LEFT(G12,SEARCH("pF",G12)-1)),
  IF(ISNUMBER(SEARCH("nF",G12)), VALUE(LEFT(G12,SEARCH("nF",G12)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G12)), VALUE(LEFT(G12,SEARCH("uF",G12)-1))*1000000,"")))</f>
-        <v>2.2000000000000002</v>
+ IF(ISNUMBER(SEARCH("µF",G12)), VALUE(LEFT(G12,SEARCH("µF",G12)-1))*1000000,"")))</f>
+        <v>0.9</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="3" t="s">
-        <v>194</v>
+      <c r="J12" s="13">
+        <v>402</v>
+      </c>
+      <c r="K12" t="s">
+        <v>520</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>522</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="Q12" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="T12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AD12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="AF12" s="19" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="AH12" s="19">
         <v>1206</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="B13" s="7">
         <v>24.9</v>
       </c>
@@ -3085,43 +3437,50 @@
         <v>24.9</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>377</v>
+      <c r="G13" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H13" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G13)), VALUE(LEFT(G13,SEARCH("pF",G13)-1)),
  IF(ISNUMBER(SEARCH("nF",G13)), VALUE(LEFT(G13,SEARCH("nF",G13)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G13)), VALUE(LEFT(G13,SEARCH("uF",G13)-1))*1000000,"")))</f>
-        <v>3.9</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>378</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>525</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="Q13" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AD13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B14" s="2">
         <v>24.9</v>
@@ -3131,47 +3490,51 @@
         <v>24.9</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>387</v>
+        <v>295</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H14" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G14)), VALUE(LEFT(G14,SEARCH("pF",G14)-1)),
  IF(ISNUMBER(SEARCH("nF",G14)), VALUE(LEFT(G14,SEARCH("nF",G14)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G14)), VALUE(LEFT(G14,SEARCH("uF",G14)-1))*1000000,"")))</f>
-        <v>4.7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="Q14" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AC14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="B15" s="7">
         <v>27.4</v>
       </c>
@@ -3180,43 +3543,49 @@
         <v>27.4</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G15)), VALUE(LEFT(G15,SEARCH("pF",G15)-1)),
  IF(ISNUMBER(SEARCH("nF",G15)), VALUE(LEFT(G15,SEARCH("nF",G15)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G15)), VALUE(LEFT(G15,SEARCH("uF",G15)-1))*1000000,"")))</f>
-        <v>4.7</v>
-      </c>
-      <c r="I15" s="22">
-        <v>250</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" t="s">
+        <v>505</v>
+      </c>
+      <c r="L15" t="s">
+        <v>529</v>
+      </c>
+      <c r="M15" t="s">
+        <v>525</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="Q15" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="V15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B16" s="2">
         <v>40.200000000000003</v>
@@ -3226,45 +3595,52 @@
         <v>40.200000000000003</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>513</v>
+        <v>189</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>615</v>
       </c>
       <c r="H16" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G16)), VALUE(LEFT(G16,SEARCH("pF",G16)-1)),
  IF(ISNUMBER(SEARCH("nF",G16)), VALUE(LEFT(G16,SEARCH("nF",G16)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G16)), VALUE(LEFT(G16,SEARCH("uF",G16)-1))*1000000,"")))</f>
-        <v>5.6</v>
-      </c>
-      <c r="I16" s="19">
-        <v>50</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+ IF(ISNUMBER(SEARCH("µF",G16)), VALUE(LEFT(G16,SEARCH("µF",G16)-1))*1000000,"")))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Q16" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="V16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AD16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B17" s="6">
         <v>56</v>
@@ -3274,46 +3650,55 @@
         <v>56</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G17)), VALUE(LEFT(G17,SEARCH("pF",G17)-1)),
  IF(ISNUMBER(SEARCH("nF",G17)), VALUE(LEFT(G17,SEARCH("nF",G17)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G17)), VALUE(LEFT(G17,SEARCH("uF",G17)-1))*1000000,"")))</f>
-        <v>5.6</v>
-      </c>
-      <c r="I17" s="19">
-        <v>250</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="P17" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="Q17" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="V17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B18" s="6">
         <v>75</v>
@@ -3323,46 +3708,52 @@
         <v>75</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="19" t="s">
-        <v>507</v>
+        <v>295</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>602</v>
       </c>
       <c r="H18" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G18)), VALUE(LEFT(G18,SEARCH("pF",G18)-1)),
  IF(ISNUMBER(SEARCH("nF",G18)), VALUE(LEFT(G18,SEARCH("nF",G18)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G18)), VALUE(LEFT(G18,SEARCH("uF",G18)-1))*1000000,"")))</f>
-        <v>6.8</v>
-      </c>
-      <c r="I18" s="19">
-        <v>250</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+ IF(ISNUMBER(SEARCH("µF",G18)), VALUE(LEFT(G18,SEARCH("µF",G18)-1))*1000000,"")))</f>
+        <v>1.8</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="15">
+        <v>402</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>525</v>
+      </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="Q18" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="V18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AC18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B19">
         <v>82</v>
@@ -3376,40 +3767,46 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H19" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G19)), VALUE(LEFT(G19,SEARCH("pF",G19)-1)),
  IF(ISNUMBER(SEARCH("nF",G19)), VALUE(LEFT(G19,SEARCH("nF",G19)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G19)), VALUE(LEFT(G19,SEARCH("uF",G19)-1))*1000000,"")))</f>
-        <v>8.1999999999999993</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>541</v>
+      </c>
       <c r="P19" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="Q19" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="V19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AC19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B20">
         <v>88.7</v>
@@ -3419,39 +3816,47 @@
         <v>88.7</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="1">
+        <v>313</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="H20" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G20)), VALUE(LEFT(G20,SEARCH("pF",G20)-1)),
  IF(ISNUMBER(SEARCH("nF",G20)), VALUE(LEFT(G20,SEARCH("nF",G20)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G20)), VALUE(LEFT(G20,SEARCH("uF",G20)-1))*1000000,"")))</f>
-        <v>10</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+ IF(ISNUMBER(SEARCH("µF",G20)), VALUE(LEFT(G20,SEARCH("µF",G20)-1))*1000000,"")))</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
+        <v>402</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>542</v>
+      </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="Q20" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="V20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AD20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -3463,41 +3868,43 @@
         <v>91</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="H21" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G21)), VALUE(LEFT(G21,SEARCH("pF",G21)-1)),
+        <f t="shared" ref="H21:H27" si="2">IF(ISNUMBER(SEARCH("pF",G21)), VALUE(LEFT(G21,SEARCH("pF",G21)-1)),
  IF(ISNUMBER(SEARCH("nF",G21)), VALUE(LEFT(G21,SEARCH("nF",G21)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G21)), VALUE(LEFT(G21,SEARCH("uF",G21)-1))*1000000,"")))</f>
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>357</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>543</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="P21" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="Q21" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="V21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AC21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -3509,38 +3916,44 @@
         <v>100</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9" t="s">
-        <v>216</v>
+        <v>188</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G22)), VALUE(LEFT(G22,SEARCH("pF",G22)-1)),
- IF(ISNUMBER(SEARCH("nF",G22)), VALUE(LEFT(G22,SEARCH("nF",G22)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G22)), VALUE(LEFT(G22,SEARCH("uF",G22)-1))*1000000,"")))</f>
-        <v>11</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="V22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AC22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -3550,38 +3963,47 @@
         <v>100</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G23)), VALUE(LEFT(G23,SEARCH("pF",G23)-1)),
- IF(ISNUMBER(SEARCH("nF",G23)), VALUE(LEFT(G23,SEARCH("nF",G23)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G23)), VALUE(LEFT(G23,SEARCH("uF",G23)-1))*1000000,"")))</f>
-        <v>13</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="G23" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="I23" s="22">
+        <v>250</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -3591,38 +4013,47 @@
         <v>100</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G24)), VALUE(LEFT(G24,SEARCH("pF",G24)-1)),
- IF(ISNUMBER(SEARCH("nF",G24)), VALUE(LEFT(G24,SEARCH("nF",G24)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G24)), VALUE(LEFT(G24,SEARCH("uF",G24)-1))*1000000,"")))</f>
-        <v>20</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20">
+        <v>603</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AC24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B25">
         <v>133</v>
@@ -3632,38 +4063,45 @@
         <v>133</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G25)), VALUE(LEFT(G25,SEARCH("pF",G25)-1)),
- IF(ISNUMBER(SEARCH("nF",G25)), VALUE(LEFT(G25,SEARCH("nF",G25)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G25)), VALUE(LEFT(G25,SEARCH("uF",G25)-1))*1000000,"")))</f>
-        <v>22</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="16">
+        <v>603</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="N25" s="3"/>
       <c r="V25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AC25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B26">
         <v>215</v>
@@ -3676,35 +4114,44 @@
         <v>1206</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G26)), VALUE(LEFT(G26,SEARCH("pF",G26)-1)),
- IF(ISNUMBER(SEARCH("nF",G26)), VALUE(LEFT(G26,SEARCH("nF",G26)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G26)), VALUE(LEFT(G26,SEARCH("uF",G26)-1))*1000000,"")))</f>
-        <v>22</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="G26" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="I26" s="19">
+        <v>250</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>558</v>
+      </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="AD26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B27">
         <v>215</v>
@@ -3714,37 +4161,42 @@
         <v>215</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="H27" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G27)), VALUE(LEFT(G27,SEARCH("pF",G27)-1)),
- IF(ISNUMBER(SEARCH("nF",G27)), VALUE(LEFT(G27,SEARCH("nF",G27)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G27)), VALUE(LEFT(G27,SEARCH("uF",G27)-1))*1000000,"")))</f>
-        <v>27</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="13">
+        <v>603</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="L27" s="3">
+        <v>36</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="3"/>
       <c r="V27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AD27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B28" s="2">
         <v>220</v>
@@ -3754,37 +4206,44 @@
         <v>220</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="19" t="s">
-        <v>515</v>
+        <v>295</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>587</v>
       </c>
       <c r="H28" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G28)), VALUE(LEFT(G28,SEARCH("pF",G28)-1)),
  IF(ISNUMBER(SEARCH("nF",G28)), VALUE(LEFT(G28,SEARCH("nF",G28)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G28)), VALUE(LEFT(G28,SEARCH("uF",G28)-1))*1000000,"")))</f>
-        <v>47</v>
-      </c>
-      <c r="I28" s="19">
-        <v>50</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+ IF(ISNUMBER(SEARCH("µF",G28)), VALUE(LEFT(G28,SEARCH("µF",G28)-1))*1000000,"")))</f>
+        <v>5.6</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="16">
+        <v>603</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L28" s="3">
+        <v>68</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="N28" s="3"/>
       <c r="V28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AD28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2">
         <v>240</v>
@@ -3794,37 +4253,46 @@
         <v>240</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="19" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="H29" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G29)), VALUE(LEFT(G29,SEARCH("pF",G29)-1)),
+        <f t="shared" ref="H29:H40" si="3">IF(ISNUMBER(SEARCH("pF",G29)), VALUE(LEFT(G29,SEARCH("pF",G29)-1)),
  IF(ISNUMBER(SEARCH("nF",G29)), VALUE(LEFT(G29,SEARCH("nF",G29)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G29)), VALUE(LEFT(G29,SEARCH("uF",G29)-1))*1000000,"")))</f>
-        <v>56</v>
+        <v>6.8</v>
       </c>
       <c r="I29" s="19">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L29" s="3">
+        <v>150</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="V29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AD29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2">
         <v>249</v>
@@ -3836,35 +4304,42 @@
       <c r="E30" s="15">
         <v>1206</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="19" t="s">
-        <v>505</v>
+      <c r="F30" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>588</v>
       </c>
       <c r="H30" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G30)), VALUE(LEFT(G30,SEARCH("pF",G30)-1)),
- IF(ISNUMBER(SEARCH("nF",G30)), VALUE(LEFT(G30,SEARCH("nF",G30)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G30)), VALUE(LEFT(G30,SEARCH("uF",G30)-1))*1000000,"")))</f>
-        <v>68</v>
-      </c>
-      <c r="I30" s="19">
-        <v>50</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="13">
+        <v>603</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>0.2</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="V30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AD30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B31">
         <v>287</v>
@@ -3874,32 +4349,37 @@
         <v>287</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="H31" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G31)), VALUE(LEFT(G31,SEARCH("pF",G31)-1)),
- IF(ISNUMBER(SEARCH("nF",G31)), VALUE(LEFT(G31,SEARCH("nF",G31)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G31)), VALUE(LEFT(G31,SEARCH("uF",G31)-1))*1000000,"")))</f>
-        <v>68</v>
-      </c>
-      <c r="I31" s="19">
-        <v>50</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="G31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>563</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>0.36</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AD31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3911,32 +4391,42 @@
         <v>300</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="9" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="H32" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G32)), VALUE(LEFT(G32,SEARCH("pF",G32)-1)),
- IF(ISNUMBER(SEARCH("nF",G32)), VALUE(LEFT(G32,SEARCH("nF",G32)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G32)), VALUE(LEFT(G32,SEARCH("uF",G32)-1))*1000000,"")))</f>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32">
+        <v>0.22</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V32" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AD32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2">
         <v>402</v>
@@ -3946,34 +4436,42 @@
         <v>402</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H33" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G33)), VALUE(LEFT(G33,SEARCH("pF",G33)-1)),
- IF(ISNUMBER(SEARCH("nF",G33)), VALUE(LEFT(G33,SEARCH("nF",G33)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G33)), VALUE(LEFT(G33,SEARCH("uF",G33)-1))*1000000,"")))</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>193</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="L33" s="3">
+        <v>43</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N33" s="3"/>
       <c r="V33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2">
         <v>402</v>
@@ -3983,69 +4481,77 @@
         <v>402</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="H34" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G34)), VALUE(LEFT(G34,SEARCH("pF",G34)-1)),
- IF(ISNUMBER(SEARCH("nF",G34)), VALUE(LEFT(G34,SEARCH("nF",G34)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G34)), VALUE(LEFT(G34,SEARCH("uF",G34)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>295</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="16">
+        <v>805</v>
+      </c>
+      <c r="K34" t="s">
+        <v>566</v>
+      </c>
+      <c r="L34">
+        <v>4.7</v>
+      </c>
+      <c r="M34">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="V34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2">
         <v>453</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C66" si="1">IF(RIGHT(B35,1)="k", VALUE(LEFT(B35,LEN(B35)-1))*1000, VALUE(B35))</f>
+        <f t="shared" ref="C35:C66" si="4">IF(RIGHT(B35,1)="k", VALUE(LEFT(B35,LEN(B35)-1))*1000, VALUE(B35))</f>
         <v>453</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="H35" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G35)), VALUE(LEFT(G35,SEARCH("pF",G35)-1)),
- IF(ISNUMBER(SEARCH("nF",G35)), VALUE(LEFT(G35,SEARCH("nF",G35)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G35)), VALUE(LEFT(G35,SEARCH("uF",G35)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="I35" s="19">
-        <v>5</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
       <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
       <c r="V35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -4053,1554 +4559,1515 @@
         <v>715</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>715</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="H36" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G36)), VALUE(LEFT(G36,SEARCH("pF",G36)-1)),
- IF(ISNUMBER(SEARCH("nF",G36)), VALUE(LEFT(G36,SEARCH("nF",G36)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G36)), VALUE(LEFT(G36,SEARCH("uF",G36)-1))*1000000,"")))</f>
-        <v>100</v>
-      </c>
-      <c r="I36" s="19">
-        <v>50</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="L36" s="3">
+        <v>30</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="N36" s="3"/>
       <c r="V36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:30">
       <c r="B37" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>423</v>
+        <v>189</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="H37" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G37)), VALUE(LEFT(G37,SEARCH("pF",G37)-1)),
- IF(ISNUMBER(SEARCH("nF",G37)), VALUE(LEFT(G37,SEARCH("nF",G37)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G37)), VALUE(LEFT(G37,SEARCH("uF",G37)-1))*1000000,"")))</f>
-        <v>390</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>220</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L37" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="V37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:30">
       <c r="B38" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="H38" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G38)), VALUE(LEFT(G38,SEARCH("pF",G38)-1)),
- IF(ISNUMBER(SEARCH("nF",G38)), VALUE(LEFT(G38,SEARCH("nF",G38)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G38)), VALUE(LEFT(G38,SEARCH("uF",G38)-1))*1000000,"")))</f>
-        <v>500</v>
-      </c>
-      <c r="I38" s="23">
-        <v>50</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="L38" s="3">
+        <v>150</v>
+      </c>
+      <c r="M38" s="3">
+        <v>7</v>
+      </c>
+      <c r="N38" s="3"/>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="B39" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>410</v>
+        <v>197</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="H39" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G39)), VALUE(LEFT(G39,SEARCH("pF",G39)-1)),
- IF(ISNUMBER(SEARCH("nF",G39)), VALUE(LEFT(G39,SEARCH("nF",G39)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G39)), VALUE(LEFT(G39,SEARCH("uF",G39)-1))*1000000,"")))</f>
-        <v>820</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>220</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N39" s="3"/>
       <c r="V39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:30">
       <c r="B40" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>206</v>
+        <v>189</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="H40" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G40)), VALUE(LEFT(G40,SEARCH("pF",G40)-1)),
- IF(ISNUMBER(SEARCH("nF",G40)), VALUE(LEFT(G40,SEARCH("nF",G40)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G40)), VALUE(LEFT(G40,SEARCH("uF",G40)-1))*1000000,"")))</f>
-        <v>1000</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3" t="s">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J40" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="K40" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="L40" s="3">
+        <v>39</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N40" s="3"/>
       <c r="V40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="B41" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="1">
+        <v>199</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="H41" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G41)), VALUE(LEFT(G41,SEARCH("pF",G41)-1)),
  IF(ISNUMBER(SEARCH("nF",G41)), VALUE(LEFT(G41,SEARCH("nF",G41)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G41)), VALUE(LEFT(G41,SEARCH("uF",G41)-1))*1000000,"")))</f>
-        <v>1000</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="3" t="s">
-        <v>194</v>
-      </c>
+ IF(ISNUMBER(SEARCH("µF",G41)), VALUE(LEFT(G41,SEARCH("µF",G41)-1))*1000000,"")))</f>
+        <v>27</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20">
+        <v>805</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="L41" s="3">
+        <v>18</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N41" s="3"/>
       <c r="V41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="B42" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H42" s="1">
+        <v>197</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H42" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G42)), VALUE(LEFT(G42,SEARCH("pF",G42)-1)),
  IF(ISNUMBER(SEARCH("nF",G42)), VALUE(LEFT(G42,SEARCH("nF",G42)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G42)), VALUE(LEFT(G42,SEARCH("uF",G42)-1))*1000000,"")))</f>
-        <v>1000</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I42" s="19">
+        <v>50</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N42" s="3"/>
       <c r="V42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:30">
       <c r="B43" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="H43" s="25">
+        <v>473</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="H43" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G43)), VALUE(LEFT(G43,SEARCH("pF",G43)-1)),
  IF(ISNUMBER(SEARCH("nF",G43)), VALUE(LEFT(G43,SEARCH("nF",G43)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G43)), VALUE(LEFT(G43,SEARCH("uF",G43)-1))*1000000,"")))</f>
-        <v>1000</v>
-      </c>
-      <c r="I43" s="19">
-        <v>50</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>193</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="16">
+        <v>603</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
       <c r="V43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H44" s="1">
+        <v>189</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H44" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G44)), VALUE(LEFT(G44,SEARCH("pF",G44)-1)),
  IF(ISNUMBER(SEARCH("nF",G44)), VALUE(LEFT(G44,SEARCH("nF",G44)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G44)), VALUE(LEFT(G44,SEARCH("uF",G44)-1))*1000000,"")))</f>
-        <v>3300</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>220</v>
+        <v>56</v>
+      </c>
+      <c r="I44" s="19">
+        <v>50</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="V44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2210</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" s="1">
+        <v>469</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="H45" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G45)), VALUE(LEFT(G45,SEARCH("pF",G45)-1)),
  IF(ISNUMBER(SEARCH("nF",G45)), VALUE(LEFT(G45,SEARCH("nF",G45)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G45)), VALUE(LEFT(G45,SEARCH("uF",G45)-1))*1000000,"")))</f>
-        <v>10000</v>
+ IF(ISNUMBER(SEARCH("µF",G45)), VALUE(LEFT(G45,SEARCH("µF",G45)-1))*1000000,"")))</f>
+        <v>56</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="3" t="s">
-        <v>194</v>
+      <c r="J45" s="15">
+        <v>603</v>
       </c>
       <c r="V45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="B46" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3320</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" s="1">
+        <v>189</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H46" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G46)), VALUE(LEFT(G46,SEARCH("pF",G46)-1)),
  IF(ISNUMBER(SEARCH("nF",G46)), VALUE(LEFT(G46,SEARCH("nF",G46)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G46)), VALUE(LEFT(G46,SEARCH("uF",G46)-1))*1000000,"")))</f>
-        <v>10000</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="3" t="s">
-        <v>194</v>
+        <v>68</v>
+      </c>
+      <c r="I46" s="19">
+        <v>50</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="V46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:30">
       <c r="B47" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3320</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>394</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F47" s="5"/>
       <c r="G47" s="19" t="s">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="H47" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G47)), VALUE(LEFT(G47,SEARCH("pF",G47)-1)),
  IF(ISNUMBER(SEARCH("nF",G47)), VALUE(LEFT(G47,SEARCH("nF",G47)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G47)), VALUE(LEFT(G47,SEARCH("uF",G47)-1))*1000000,"")))</f>
-        <v>10000</v>
+        <v>68</v>
       </c>
       <c r="I47" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="V47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:30">
       <c r="B48" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3920</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H48" s="1">
+        <v>197</v>
+      </c>
+      <c r="F48" t="s">
+        <v>475</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="H48" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G48)), VALUE(LEFT(G48,SEARCH("pF",G48)-1)),
  IF(ISNUMBER(SEARCH("nF",G48)), VALUE(LEFT(G48,SEARCH("nF",G48)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G48)), VALUE(LEFT(G48,SEARCH("uF",G48)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="3" t="s">
-        <v>193</v>
+        <v>68</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="20">
+        <v>603</v>
       </c>
       <c r="V48" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4750</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="1">
+        <v>464</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="H49" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G49)), VALUE(LEFT(G49,SEARCH("pF",G49)-1)),
  IF(ISNUMBER(SEARCH("nF",G49)), VALUE(LEFT(G49,SEARCH("nF",G49)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G49)), VALUE(LEFT(G49,SEARCH("uF",G49)-1))*1000000,"")))</f>
-        <v>100000</v>
+ IF(ISNUMBER(SEARCH("µF",G49)), VALUE(LEFT(G49,SEARCH("µF",G49)-1))*1000000,"")))</f>
+        <v>68</v>
       </c>
       <c r="I49" s="5"/>
+      <c r="J49" s="13">
+        <v>603</v>
+      </c>
       <c r="V49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>385</v>
+        <v>197</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H50" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G50)), VALUE(LEFT(G50,SEARCH("pF",G50)-1)),
  IF(ISNUMBER(SEARCH("nF",G50)), VALUE(LEFT(G50,SEARCH("nF",G50)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G50)), VALUE(LEFT(G50,SEARCH("uF",G50)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>193</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I50" s="5"/>
       <c r="V50" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="B51" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6650</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="H51" s="22">
+        <v>197</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H51" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G51)), VALUE(LEFT(G51,SEARCH("pF",G51)-1)),
  IF(ISNUMBER(SEARCH("nF",G51)), VALUE(LEFT(G51,SEARCH("nF",G51)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G51)), VALUE(LEFT(G51,SEARCH("uF",G51)-1))*1000000,"")))</f>
-        <v>100000</v>
-      </c>
-      <c r="I51" s="19">
-        <v>50</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>194</v>
+        <v>100</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="V51" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7150</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>210</v>
+        <v>189</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="H52" s="1">
         <f>IF(ISNUMBER(SEARCH("pF",G52)), VALUE(LEFT(G52,SEARCH("pF",G52)-1)),
  IF(ISNUMBER(SEARCH("nF",G52)), VALUE(LEFT(G52,SEARCH("nF",G52)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G52)), VALUE(LEFT(G52,SEARCH("uF",G52)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="3" t="s">
-        <v>194</v>
+        <v>100</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="V52" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7150</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" s="1">
+        <v>189</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H53" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G53)), VALUE(LEFT(G53,SEARCH("pF",G53)-1)),
  IF(ISNUMBER(SEARCH("nF",G53)), VALUE(LEFT(G53,SEARCH("nF",G53)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G53)), VALUE(LEFT(G53,SEARCH("uF",G53)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="3" t="s">
-        <v>194</v>
+        <v>100</v>
+      </c>
+      <c r="I53" s="19">
+        <v>5</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="V53" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="B54" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8060.0000000000009</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G54)), VALUE(LEFT(G54,SEARCH("pF",G54)-1)),
+        <v>348</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" ref="H54:H62" si="5">IF(ISNUMBER(SEARCH("pF",G54)), VALUE(LEFT(G54,SEARCH("pF",G54)-1)),
  IF(ISNUMBER(SEARCH("nF",G54)), VALUE(LEFT(G54,SEARCH("nF",G54)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G54)), VALUE(LEFT(G54,SEARCH("uF",G54)-1))*1000000,"")))</f>
-        <v>1000000</v>
+ IF(ISNUMBER(SEARCH("µF",G54)), VALUE(LEFT(G54,SEARCH("µF",G54)-1))*1000000,"")))</f>
+        <v>100</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="3" t="s">
-        <v>194</v>
+      <c r="J54" s="13">
+        <v>402</v>
       </c>
       <c r="V54" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8870</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H55" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G55)), VALUE(LEFT(G55,SEARCH("pF",G55)-1)),
- IF(ISNUMBER(SEARCH("nF",G55)), VALUE(LEFT(G55,SEARCH("nF",G55)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G55)), VALUE(LEFT(G55,SEARCH("uF",G55)-1))*1000000,"")))</f>
-        <v>1000000</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>220</v>
+        <v>358</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="22">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <v>402</v>
       </c>
       <c r="V55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G56)), VALUE(LEFT(G56,SEARCH("pF",G56)-1)),
- IF(ISNUMBER(SEARCH("nF",G56)), VALUE(LEFT(G56,SEARCH("nF",G56)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G56)), VALUE(LEFT(G56,SEARCH("uF",G56)-1))*1000000,"")))</f>
-        <v>2200000</v>
+        <v>191</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="3" t="s">
-        <v>193</v>
+      <c r="J56" s="13">
+        <v>603</v>
       </c>
       <c r="V56" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12100</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G57)), VALUE(LEFT(G57,SEARCH("pF",G57)-1)),
- IF(ISNUMBER(SEARCH("nF",G57)), VALUE(LEFT(G57,SEARCH("nF",G57)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G57)), VALUE(LEFT(G57,SEARCH("uF",G57)-1))*1000000,"")))</f>
-        <v>2200000</v>
+        <v>189</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="5"/>
+        <v>390</v>
       </c>
       <c r="I57" s="5"/>
-      <c r="J57" s="3" t="s">
-        <v>194</v>
+      <c r="J57" s="16">
+        <v>805</v>
       </c>
       <c r="V57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16900</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H58" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G58)), VALUE(LEFT(G58,SEARCH("pF",G58)-1)),
- IF(ISNUMBER(SEARCH("nF",G58)), VALUE(LEFT(G58,SEARCH("nF",G58)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G58)), VALUE(LEFT(G58,SEARCH("uF",G58)-1))*1000000,"")))</f>
-        <v>2200000</v>
+        <v>476</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="3" t="s">
-        <v>194</v>
+      <c r="J58" s="13">
+        <v>603</v>
       </c>
       <c r="V58" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17400</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>502</v>
+        <v>377</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>592</v>
       </c>
       <c r="H59" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G59)), VALUE(LEFT(G59,SEARCH("pF",G59)-1)),
- IF(ISNUMBER(SEARCH("nF",G59)), VALUE(LEFT(G59,SEARCH("nF",G59)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G59)), VALUE(LEFT(G59,SEARCH("uF",G59)-1))*1000000,"")))</f>
-        <v>2200000</v>
-      </c>
-      <c r="I59" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>820</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="13">
+        <v>805</v>
       </c>
       <c r="V59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17400</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>502</v>
+        <v>189</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>608</v>
       </c>
       <c r="H60" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G60)), VALUE(LEFT(G60,SEARCH("pF",G60)-1)),
- IF(ISNUMBER(SEARCH("nF",G60)), VALUE(LEFT(G60,SEARCH("nF",G60)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G60)), VALUE(LEFT(G60,SEARCH("uF",G60)-1))*1000000,"")))</f>
-        <v>2200000</v>
-      </c>
-      <c r="I60" s="19">
-        <v>10</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="16">
+        <v>402</v>
       </c>
       <c r="V60" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="H61" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G61)), VALUE(LEFT(G61,SEARCH("pF",G61)-1)),
- IF(ISNUMBER(SEARCH("nF",G61)), VALUE(LEFT(G61,SEARCH("nF",G61)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G61)), VALUE(LEFT(G61,SEARCH("uF",G61)-1))*1000000,"")))</f>
-        <v>4700000</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="H61" s="22">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="16">
+        <v>805</v>
       </c>
       <c r="V61" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>500</v>
+        <v>189</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>603</v>
       </c>
       <c r="H62" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G62)), VALUE(LEFT(G62,SEARCH("pF",G62)-1)),
- IF(ISNUMBER(SEARCH("nF",G62)), VALUE(LEFT(G62,SEARCH("nF",G62)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G62)), VALUE(LEFT(G62,SEARCH("uF",G62)-1))*1000000,"")))</f>
-        <v>4700000</v>
-      </c>
-      <c r="I62" s="19">
-        <v>10</v>
-      </c>
-      <c r="J62" s="23" t="s">
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="16">
+        <v>603</v>
       </c>
       <c r="V62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H63" s="1">
+        <v>361</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="H63" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G63)), VALUE(LEFT(G63,SEARCH("pF",G63)-1)),
  IF(ISNUMBER(SEARCH("nF",G63)), VALUE(LEFT(G63,SEARCH("nF",G63)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G63)), VALUE(LEFT(G63,SEARCH("uF",G63)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="3" t="s">
-        <v>193</v>
+        <v>100000</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20">
+        <v>402</v>
       </c>
       <c r="V63" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27000</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G64)), VALUE(LEFT(G64,SEARCH("pF",G64)-1)),
+        <v>468</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="H64" s="22">
+        <f t="shared" ref="H64:H82" si="6">IF(ISNUMBER(SEARCH("pF",G64)), VALUE(LEFT(G64,SEARCH("pF",G64)-1)),
  IF(ISNUMBER(SEARCH("nF",G64)), VALUE(LEFT(G64,SEARCH("nF",G64)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G64)), VALUE(LEFT(G64,SEARCH("uF",G64)-1))*1000000,"")))</f>
-        <v>10000000</v>
+ IF(ISNUMBER(SEARCH("µF",G64)), VALUE(LEFT(G64,SEARCH("µF",G64)-1))*1000000,"")))</f>
+        <v>100000</v>
       </c>
       <c r="I64" s="5"/>
+      <c r="J64" s="16">
+        <v>603</v>
+      </c>
       <c r="V64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28000</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H65" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G65)), VALUE(LEFT(G65,SEARCH("pF",G65)-1)),
- IF(ISNUMBER(SEARCH("nF",G65)), VALUE(LEFT(G65,SEARCH("nF",G65)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G65)), VALUE(LEFT(G65,SEARCH("uF",G65)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="H65" s="22">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20">
+        <v>805</v>
       </c>
       <c r="V65" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="B66" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H66" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G66)), VALUE(LEFT(G66,SEARCH("pF",G66)-1)),
- IF(ISNUMBER(SEARCH("nF",G66)), VALUE(LEFT(G66,SEARCH("nF",G66)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G66)), VALUE(LEFT(G66,SEARCH("uF",G66)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>203</v>
+        <v>462</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="H66" s="22">
+        <f t="shared" si="6"/>
+        <v>2200000</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="15">
+        <v>603</v>
       </c>
       <c r="V66" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C84" si="2">IF(RIGHT(B67,1)="k", VALUE(LEFT(B67,LEN(B67)-1))*1000, VALUE(B67))</f>
+        <f t="shared" ref="C67:C84" si="7">IF(RIGHT(B67,1)="k", VALUE(LEFT(B67,LEN(B67)-1))*1000, VALUE(B67))</f>
         <v>30000</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H67" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G67)), VALUE(LEFT(G67,SEARCH("pF",G67)-1)),
- IF(ISNUMBER(SEARCH("nF",G67)), VALUE(LEFT(G67,SEARCH("nF",G67)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G67)), VALUE(LEFT(G67,SEARCH("uF",G67)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="H67" s="22">
+        <f t="shared" si="6"/>
+        <v>2200000</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="16">
+        <v>603</v>
       </c>
       <c r="V67" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>30000</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>520</v>
+        <v>189</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>601</v>
       </c>
       <c r="H68" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G68)), VALUE(LEFT(G68,SEARCH("pF",G68)-1)),
- IF(ISNUMBER(SEARCH("nF",G68)), VALUE(LEFT(G68,SEARCH("nF",G68)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G68)), VALUE(LEFT(G68,SEARCH("uF",G68)-1))*1000000,"")))</f>
-        <v>10000000</v>
-      </c>
-      <c r="I68" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>194</v>
+        <f t="shared" si="6"/>
+        <v>4700000</v>
+      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20">
+        <v>603</v>
       </c>
       <c r="V68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>30000</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="H69" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G69)), VALUE(LEFT(G69,SEARCH("pF",G69)-1)),
- IF(ISNUMBER(SEARCH("nF",G69)), VALUE(LEFT(G69,SEARCH("nF",G69)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G69)), VALUE(LEFT(G69,SEARCH("uF",G69)-1))*1000000,"")))</f>
-        <v>15000000</v>
-      </c>
-      <c r="I69" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="H69" s="22">
+        <f t="shared" si="6"/>
+        <v>4700000</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="13">
         <v>402</v>
       </c>
-      <c r="J69" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="V69" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="B70" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38300</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H70" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G70)), VALUE(LEFT(G70,SEARCH("pF",G70)-1)),
- IF(ISNUMBER(SEARCH("nF",G70)), VALUE(LEFT(G70,SEARCH("nF",G70)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G70)), VALUE(LEFT(G70,SEARCH("uF",G70)-1))*1000000,"")))</f>
-        <v>16000000</v>
+        <v>188</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H70" s="22">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="3" t="s">
-        <v>225</v>
+      <c r="J70" s="13">
+        <v>603</v>
       </c>
       <c r="V70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="B71" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47000</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H71" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G71)), VALUE(LEFT(G71,SEARCH("pF",G71)-1)),
- IF(ISNUMBER(SEARCH("nF",G71)), VALUE(LEFT(G71,SEARCH("nF",G71)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G71)), VALUE(LEFT(G71,SEARCH("uF",G71)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>203</v>
+        <v>417</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H71" s="22">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="16" t="s">
+        <v>607</v>
       </c>
       <c r="V71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="B72" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>60400</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H72" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G72)), VALUE(LEFT(G72,SEARCH("pF",G72)-1)),
- IF(ISNUMBER(SEARCH("nF",G72)), VALUE(LEFT(G72,SEARCH("nF",G72)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G72)), VALUE(LEFT(G72,SEARCH("uF",G72)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="I72" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J72" s="17" t="s">
-        <v>344</v>
+      <c r="G72" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H72" s="22">
+        <f t="shared" si="6"/>
+        <v>10000000</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="16">
+        <v>1206</v>
       </c>
       <c r="V72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="B73" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>82000</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H73" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G73)), VALUE(LEFT(G73,SEARCH("pF",G73)-1)),
- IF(ISNUMBER(SEARCH("nF",G73)), VALUE(LEFT(G73,SEARCH("nF",G73)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G73)), VALUE(LEFT(G73,SEARCH("uF",G73)-1))*1000000,"")))</f>
-        <v>22000000</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>344</v>
+        <v>188</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="H73" s="22">
+        <f t="shared" si="6"/>
+        <v>15000000</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="13">
+        <v>805</v>
       </c>
       <c r="V73" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>88700</v>
       </c>
-      <c r="F74" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H74" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G74)), VALUE(LEFT(G74,SEARCH("pF",G74)-1)),
- IF(ISNUMBER(SEARCH("nF",G74)), VALUE(LEFT(G74,SEARCH("nF",G74)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G74)), VALUE(LEFT(G74,SEARCH("uF",G74)-1))*1000000,"")))</f>
+      <c r="F74" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="H74" s="22">
+        <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>383</v>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20">
+        <v>1206</v>
       </c>
       <c r="V74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>102000</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="H75" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G75)), VALUE(LEFT(G75,SEARCH("pF",G75)-1)),
- IF(ISNUMBER(SEARCH("nF",G75)), VALUE(LEFT(G75,SEARCH("nF",G75)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G75)), VALUE(LEFT(G75,SEARCH("uF",G75)-1))*1000000,"")))</f>
+        <v>370</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H75" s="22">
+        <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>220</v>
+      <c r="I75" s="5"/>
+      <c r="J75" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="V75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>102000</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="H76" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G76)), VALUE(LEFT(G76,SEARCH("pF",G76)-1)),
- IF(ISNUMBER(SEARCH("nF",G76)), VALUE(LEFT(G76,SEARCH("nF",G76)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G76)), VALUE(LEFT(G76,SEARCH("uF",G76)-1))*1000000,"")))</f>
-        <v>33000000</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>203</v>
+        <v>373</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H76" s="22">
+        <f t="shared" si="6"/>
+        <v>22000000</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="16">
+        <v>805</v>
       </c>
       <c r="V76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>120000</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H77" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G77)), VALUE(LEFT(G77,SEARCH("pF",G77)-1)),
- IF(ISNUMBER(SEARCH("nF",G77)), VALUE(LEFT(G77,SEARCH("nF",G77)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G77)), VALUE(LEFT(G77,SEARCH("uF",G77)-1))*1000000,"")))</f>
-        <v>47000000</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J77" s="17" t="s">
-        <v>203</v>
+        <v>366</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H77" s="22">
+        <f t="shared" si="6"/>
+        <v>22000000</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="16">
+        <v>1210</v>
       </c>
       <c r="V77" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>140000</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H78" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G78)), VALUE(LEFT(G78,SEARCH("pF",G78)-1)),
- IF(ISNUMBER(SEARCH("nF",G78)), VALUE(LEFT(G78,SEARCH("nF",G78)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G78)), VALUE(LEFT(G78,SEARCH("uF",G78)-1))*1000000,"")))</f>
-        <v>47000000</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J78" s="17" t="s">
-        <v>220</v>
+        <v>368</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H78" s="22">
+        <f t="shared" si="6"/>
+        <v>22000000</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="13">
+        <v>1210</v>
       </c>
       <c r="V78" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="H79" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G79)), VALUE(LEFT(G79,SEARCH("pF",G79)-1)),
- IF(ISNUMBER(SEARCH("nF",G79)), VALUE(LEFT(G79,SEARCH("nF",G79)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G79)), VALUE(LEFT(G79,SEARCH("uF",G79)-1))*1000000,"")))</f>
-        <v>100000000</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="H79" s="22">
+        <f t="shared" si="6"/>
+        <v>33000000</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="16">
+        <v>1206</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G80)), VALUE(LEFT(G80,SEARCH("pF",G80)-1)),
- IF(ISNUMBER(SEARCH("nF",G80)), VALUE(LEFT(G80,SEARCH("nF",G80)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G80)), VALUE(LEFT(G80,SEARCH("uF",G80)-1))*1000000,"")))</f>
-        <v>220000000</v>
+        <v>295</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="H80" s="22">
+        <f t="shared" si="6"/>
+        <v>47000000</v>
       </c>
       <c r="I80" s="5"/>
+      <c r="J80" s="13">
+        <v>1206</v>
+      </c>
     </row>
     <row r="81" spans="1:15">
       <c r="B81" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>191000</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G81)), VALUE(LEFT(G81,SEARCH("pF",G81)-1)),
- IF(ISNUMBER(SEARCH("nF",G81)), VALUE(LEFT(G81,SEARCH("nF",G81)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G81)), VALUE(LEFT(G81,SEARCH("uF",G81)-1))*1000000,"")))</f>
-        <v>220000000</v>
+        <v>197</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="H81" s="22">
+        <f t="shared" si="6"/>
+        <v>47000000</v>
       </c>
       <c r="I81" s="5"/>
-      <c r="J81" s="3" t="s">
-        <v>215</v>
+      <c r="J81" s="16">
+        <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="B82" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H82" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G82)), VALUE(LEFT(G82,SEARCH("pF",G82)-1)),
- IF(ISNUMBER(SEARCH("nF",G82)), VALUE(LEFT(G82,SEARCH("nF",G82)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G82)), VALUE(LEFT(G82,SEARCH("uF",G82)-1))*1000000,"")))</f>
-        <v>220000000</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>215</v>
+        <v>367</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="H82" s="22">
+        <f t="shared" si="6"/>
+        <v>100000000</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
@@ -5608,58 +6075,54 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>249000</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="1">
+        <v>295</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="22">
         <f>IF(ISNUMBER(SEARCH("pF",G83)), VALUE(LEFT(G83,SEARCH("pF",G83)-1)),
  IF(ISNUMBER(SEARCH("nF",G83)), VALUE(LEFT(G83,SEARCH("nF",G83)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G83)), VALUE(LEFT(G83,SEARCH("uF",G83)-1))*1000000,"")))</f>
-        <v>330000000</v>
-      </c>
-      <c r="I83" s="4"/>
+        <v>220000000</v>
+      </c>
+      <c r="I83" s="19">
+        <v>50</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>202</v>
+      </c>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15">
       <c r="B84" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>250000</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G84)), VALUE(LEFT(G84,SEARCH("pF",G84)-1)),
- IF(ISNUMBER(SEARCH("nF",G84)), VALUE(LEFT(G84,SEARCH("nF",G84)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G84)), VALUE(LEFT(G84,SEARCH("uF",G84)-1))*1000000,"")))</f>
-        <v>470000000</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F84" s="19"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1"/>
       <c r="I84" s="5"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
@@ -5667,17 +6130,17 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C85">
         <f>IF(RIGHT(B85,1)="K",VALUE(LEFT(B85,LEN(B85)-1))*1000,VALUE(B85))</f>
         <v>634000</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
@@ -5690,21 +6153,21 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C86">
         <f>IF(RIGHT(B86,1)="K",VALUE(LEFT(B86,LEN(B86)-1))*1000,VALUE(B86))</f>
         <v>82000</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+        <v>189</v>
+      </c>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
       <c r="M86" s="18"/>
@@ -5713,671 +6176,803 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B87">
         <v>3.16</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:C130" si="3">IF(RIGHT(B87,1)="K",VALUE(LEFT(B87,LEN(B87)-1))*1000,VALUE(B87))</f>
+        <f t="shared" ref="C87:C130" si="8">IF(RIGHT(B87,1)="K",VALUE(LEFT(B87,LEN(B87)-1))*1000,VALUE(B87))</f>
         <v>3.16</v>
       </c>
+      <c r="F87" s="34"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F88" s="34"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B90">
         <v>150</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F90" s="34"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B91">
         <v>113</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4990</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F92" s="34"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B94">
         <v>402</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>402</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>220</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F94" s="34"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B95" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>220</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="34"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B96">
         <v>267</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>267</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="34"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B97">
         <v>51</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F97" s="34"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="34"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B98" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F98" s="34"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="34"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B99">
         <v>15</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F99" s="34"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="34"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B100">
         <v>56</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="34"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="34"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B101">
         <v>220</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F101" s="34"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="34"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1300</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F102" s="34"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="34"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B103">
         <v>100</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F103" s="34"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="34"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F104" s="34"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="34"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B105" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8450</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="34"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8450</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="34"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B107">
         <v>56.2</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>56.2</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="B108" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>95300</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="34"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="34"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="34"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B110">
         <v>100</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F110" s="34"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="34"/>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="B111">
         <v>88</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F111" s="34"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="34"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="B112">
         <v>50</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F112" s="34"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="34"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="B113">
         <v>500</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F113" s="34"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="34"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="B114">
         <v>200</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F114" s="34"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="34"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B115">
         <v>150</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F115" s="34"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="34"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F116" s="34"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="34"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B117" s="19">
         <v>91</v>
       </c>
       <c r="C117" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F117" s="34"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="B118" s="19">
         <v>165</v>
       </c>
       <c r="C118" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="34"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="34"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B119" s="19">
         <v>0</v>
       </c>
       <c r="C119" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="21"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="34"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="34"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="C120" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1620</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F120" s="34"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="34"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C121" s="19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F121" s="34"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="34"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="B122" s="19">
         <v>287</v>
       </c>
       <c r="C122" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>287</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F122" s="34"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="34"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B123" s="19">
         <v>43.2</v>
       </c>
       <c r="C123" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>43.2</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F123" s="34"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="34"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B124" s="19">
         <v>3.9</v>
       </c>
       <c r="C124" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.9</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F124" s="34"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="34"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="C125" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>41200</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F125" s="34"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="34"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B126" s="19">
         <v>243</v>
       </c>
       <c r="C126" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="34"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="34"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="B127" s="19">
         <v>47</v>
       </c>
       <c r="C127" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="34"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="34"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="C128" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>62000</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F128" s="34"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="34"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B129" s="19">
         <v>470</v>
       </c>
       <c r="C129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" s="34"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="34"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="C130" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2870</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F130" s="34"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="34"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="C131" s="19">
         <f>IF(RIGHT(B131,1)="K",VALUE(LEFT(B131,LEN(B131)-1))*1000,VALUE(B131))</f>
@@ -6385,15 +6980,18 @@
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F131" s="34"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="34"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C132" s="19">
         <f>IF(RIGHT(B132,1)="K",VALUE(LEFT(B132,LEN(B132)-1))*1000,VALUE(B132))</f>
@@ -6403,80 +7001,89 @@
       <c r="E132" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="34"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="34"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="B133" s="19">
         <v>10</v>
       </c>
       <c r="C133" s="19">
-        <f t="shared" ref="C133:C138" si="4">IF(RIGHT(B133,1)="K",VALUE(LEFT(B133,LEN(B133)-1))*1000,VALUE(B133))</f>
+        <f t="shared" ref="C133:C138" si="9">IF(RIGHT(B133,1)="K",VALUE(LEFT(B133,LEN(B133)-1))*1000,VALUE(B133))</f>
         <v>10</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F133" s="34"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="34"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="B134" s="19">
         <v>60.4</v>
       </c>
       <c r="C134" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>60.4</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="34"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="34"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C135" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="19" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C136" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="19" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="B137" s="19">
         <v>100</v>
       </c>
       <c r="C137" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="D137" s="19"/>
@@ -6484,27 +7091,39 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:8">
       <c r="A138" s="19" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C138" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>200000</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B143" t="s">
+        <v>551</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G3:J84">
-    <sortCondition ref="H3:H84"/>
+  <sortState ref="F3:J83">
+    <sortCondition ref="H3:H83"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>

--- a/electrocomponents inventory.xlsx
+++ b/electrocomponents inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1B60-94E6-4D48-95B5-41B0985EB629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DC5C8-F4FA-491B-83F4-5352307F05D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_0201">Sheet1!$K$3</definedName>
+    <definedName name="_0201">Sheet1!$M$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$85</definedName>
-    <definedName name="daass" comment="sdas" localSheetId="0">Sheet1!$K$3</definedName>
+    <definedName name="daass" comment="sdas" localSheetId="0">Sheet1!$M$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="617">
   <si>
     <t>capacitors</t>
   </si>
@@ -1929,6 +1929,9 @@
   </si>
   <si>
     <t>1 pF</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2124,6 +2127,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2474,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C469EB1-7C4F-44C2-A2B1-C1B425A668CE}">
-  <dimension ref="A1:AN143"/>
+  <dimension ref="A1:AP143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2485,114 +2494,116 @@
     <col min="1" max="1" width="27.69921875" customWidth="1"/>
     <col min="2" max="2" width="13.69921875" customWidth="1"/>
     <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="13" width="18.69921875" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" customWidth="1"/>
-    <col min="15" max="15" width="20.5" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" customWidth="1"/>
-    <col min="18" max="20" width="15.3984375" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" customWidth="1"/>
-    <col min="22" max="24" width="33.09765625" customWidth="1"/>
-    <col min="25" max="28" width="49.8984375" customWidth="1"/>
-    <col min="29" max="29" width="32.5" customWidth="1"/>
-    <col min="30" max="30" width="33.59765625" customWidth="1"/>
-    <col min="31" max="31" width="18.8984375" customWidth="1"/>
-    <col min="35" max="35" width="15.59765625" customWidth="1"/>
-    <col min="36" max="36" width="17.69921875" customWidth="1"/>
+    <col min="5" max="6" width="19.69921875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="11" max="12" width="18.69921875" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="15" width="18.69921875" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" customWidth="1"/>
+    <col min="19" max="19" width="27.19921875" customWidth="1"/>
+    <col min="20" max="22" width="15.3984375" customWidth="1"/>
+    <col min="23" max="23" width="19.3984375" customWidth="1"/>
+    <col min="24" max="26" width="33.09765625" customWidth="1"/>
+    <col min="27" max="30" width="49.8984375" customWidth="1"/>
+    <col min="31" max="31" width="32.5" customWidth="1"/>
+    <col min="32" max="32" width="33.59765625" customWidth="1"/>
+    <col min="33" max="33" width="18.8984375" customWidth="1"/>
+    <col min="37" max="37" width="15.59765625" customWidth="1"/>
+    <col min="38" max="38" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="Z1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AC1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AG1" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="25" t="s">
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="AJ1" s="36" t="s">
+      <c r="AL1" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -2608,109 +2619,113 @@
       <c r="E2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" t="s">
         <v>183</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>229</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>521</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>81</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>423</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>23</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>150</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>395</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>396</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>397</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>398</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AK2" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:42">
       <c r="B3" s="7">
         <v>0</v>
       </c>
@@ -2721,89 +2736,91 @@
       <c r="E3" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H3" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
- IF(ISNUMBER(SEARCH("nF",G3)), VALUE(LEFT(G3,SEARCH("nF",G3)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G3)), VALUE(LEFT(G3,SEARCH("uF",G3)-1))*1000000,"")))</f>
+      <c r="I3" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H3)), VALUE(LEFT(H3,SEARCH("pF",H3)-1)),
+ IF(ISNUMBER(SEARCH("nF",H3)), VALUE(LEFT(H3,SEARCH("nF",H3)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H3)), VALUE(LEFT(H3,SEARCH("uF",H3)-1))*1000000,"")))</f>
         <v>0.1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="L3" s="17"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>72</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>151</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>393</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>399</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>400</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>220</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:42">
       <c r="B4" s="7">
         <v>0</v>
       </c>
@@ -2814,77 +2831,79 @@
       <c r="E4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="H4" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G4)), VALUE(LEFT(G4,SEARCH("pF",G4)-1)),
- IF(ISNUMBER(SEARCH("nF",G4)), VALUE(LEFT(G4,SEARCH("nF",G4)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G4)), VALUE(LEFT(G4,SEARCH("µF",G4)-1))*1000000,"")))</f>
+      <c r="I4" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H4)), VALUE(LEFT(H4,SEARCH("pF",H4)-1)),
+ IF(ISNUMBER(SEARCH("nF",H4)), VALUE(LEFT(H4,SEARCH("nF",H4)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H4)), VALUE(LEFT(H4,SEARCH("µF",H4)-1))*1000000,"")))</f>
         <v>0.1</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="15">
-        <v>505</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="15"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>6</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>152</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>401</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>402</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>403</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AL4" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>2700</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AP4" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -2896,76 +2915,78 @@
       <c r="E5" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="H5" s="22">
-        <f t="shared" ref="H5:H11" si="1">IF(ISNUMBER(SEARCH("pF",G5)), VALUE(LEFT(G5,SEARCH("pF",G5)-1)),
- IF(ISNUMBER(SEARCH("nF",G5)), VALUE(LEFT(G5,SEARCH("nF",G5)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G5)), VALUE(LEFT(G5,SEARCH("uF",G5)-1))*1000000,"")))</f>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I11" si="1">IF(ISNUMBER(SEARCH("pF",H5)), VALUE(LEFT(H5,SEARCH("pF",H5)-1)),
+ IF(ISNUMBER(SEARCH("nF",H5)), VALUE(LEFT(H5,SEARCH("nF",H5)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H5)), VALUE(LEFT(H5,SEARCH("uF",H5)-1))*1000000,"")))</f>
         <v>0.2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="J5" s="19">
         <v>250</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>7</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>46</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>153</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>406</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>407</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
         <v>400</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AK5" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="AJ5" s="23" t="s">
+      <c r="AL5" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>220</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AP5" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -2979,68 +3000,70 @@
       <c r="E6" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="22">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13">
+      <c r="J6" s="4"/>
+      <c r="K6" s="13">
         <v>603</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="Q6" t="s">
+      <c r="O6" s="3"/>
+      <c r="S6" t="s">
         <v>15</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>47</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>408</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>409</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>410</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AK6" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AL6" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>220</v>
       </c>
-      <c r="AN6" s="13" t="s">
+      <c r="AP6" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -3054,58 +3077,60 @@
       <c r="E7" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="22">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="I7" s="19">
+      <c r="J7" s="19">
         <v>250</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" t="s">
         <v>510</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>48</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>29</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>155</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>411</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>412</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>372</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI7" s="19" t="s">
+      <c r="AK7" s="19" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -3119,55 +3144,57 @@
       <c r="E8" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="H8" s="22">
+      <c r="I8" s="22">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="13">
-        <v>603</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="N8" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="Q8" t="s">
+      <c r="O8" s="3"/>
+      <c r="S8" t="s">
         <v>62</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>49</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>156</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AG8" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AH8" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19" t="s">
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="B9" s="7">
         <v>10</v>
       </c>
@@ -3178,59 +3205,61 @@
       <c r="E9" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="N9" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="Q9" t="s">
+      <c r="O9" s="3"/>
+      <c r="S9" t="s">
         <v>63</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>50</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>157</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AJ9" s="19">
         <v>1206</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
         <v>297</v>
       </c>
@@ -3244,59 +3273,61 @@
       <c r="E10" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="H10" s="22">
+      <c r="I10" s="22">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I10" s="19">
+      <c r="J10" s="19">
         <v>250</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="N10" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="Q10" t="s">
+      <c r="O10" s="3"/>
+      <c r="S10" t="s">
         <v>70</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>158</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AG10" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="AF10" s="19" t="s">
+      <c r="AH10" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="AG10" s="19" t="s">
+      <c r="AI10" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AJ10" s="19">
         <v>1206</v>
       </c>
-      <c r="AI10" s="19" t="s">
+      <c r="AK10" s="19" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="B11" s="7">
         <v>15</v>
       </c>
@@ -3307,58 +3338,60 @@
       <c r="E11" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="13">
-        <v>603</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="N11" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>87</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>52</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>159</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AG11" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AH11" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="AG11" s="19" t="s">
+      <c r="AI11" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AJ11" s="19">
         <v>1206</v>
       </c>
-      <c r="AI11" s="19" t="s">
+      <c r="AK11" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="B12" s="7">
         <v>16.5</v>
       </c>
@@ -3369,66 +3402,68 @@
       <c r="E12" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="H12" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G12)), VALUE(LEFT(G12,SEARCH("pF",G12)-1)),
- IF(ISNUMBER(SEARCH("nF",G12)), VALUE(LEFT(G12,SEARCH("nF",G12)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G12)), VALUE(LEFT(G12,SEARCH("µF",G12)-1))*1000000,"")))</f>
+      <c r="I12" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H12)), VALUE(LEFT(H12,SEARCH("pF",H12)-1)),
+ IF(ISNUMBER(SEARCH("nF",H12)), VALUE(LEFT(H12,SEARCH("nF",H12)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H12)), VALUE(LEFT(H12,SEARCH("µF",H12)-1))*1000000,"")))</f>
         <v>0.9</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="13">
+      <c r="J12" s="5"/>
+      <c r="K12" s="13">
         <v>402</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" t="s">
         <v>520</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="N12" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>235</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>234</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>85</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>78</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>160</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="AH12" s="19">
+      <c r="AJ12" s="19">
         <v>1206</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AK12" s="19" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="B13" s="7">
         <v>24.9</v>
       </c>
@@ -3439,46 +3474,48 @@
       <c r="E13" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H13" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G13)), VALUE(LEFT(G13,SEARCH("pF",G13)-1)),
- IF(ISNUMBER(SEARCH("nF",G13)), VALUE(LEFT(G13,SEARCH("nF",G13)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G13)), VALUE(LEFT(G13,SEARCH("uF",G13)-1))*1000000,"")))</f>
+      <c r="I13" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H13)), VALUE(LEFT(H13,SEARCH("pF",H13)-1)),
+ IF(ISNUMBER(SEARCH("nF",H13)), VALUE(LEFT(H13,SEARCH("nF",H13)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H13)), VALUE(LEFT(H13,SEARCH("uF",H13)-1))*1000000,"")))</f>
         <v>1</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="N13" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="O13" s="32" t="s">
         <v>525</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>236</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>237</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>83</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>161</v>
       </c>
-      <c r="AI13" s="19" t="s">
+      <c r="AK13" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -3492,49 +3529,51 @@
       <c r="E14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G14)), VALUE(LEFT(G14,SEARCH("pF",G14)-1)),
- IF(ISNUMBER(SEARCH("nF",G14)), VALUE(LEFT(G14,SEARCH("nF",G14)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G14)), VALUE(LEFT(G14,SEARCH("uF",G14)-1))*1000000,"")))</f>
+      <c r="I14" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H14)), VALUE(LEFT(H14,SEARCH("pF",H14)-1)),
+ IF(ISNUMBER(SEARCH("nF",H14)), VALUE(LEFT(H14,SEARCH("nF",H14)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H14)), VALUE(LEFT(H14,SEARCH("uF",H14)-1))*1000000,"")))</f>
         <v>1</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>239</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>35</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>162</v>
       </c>
-      <c r="AI14" s="19" t="s">
+      <c r="AK14" s="19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="B15" s="7">
         <v>27.4</v>
       </c>
@@ -3545,45 +3584,46 @@
       <c r="E15" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="H15" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G15)), VALUE(LEFT(G15,SEARCH("pF",G15)-1)),
- IF(ISNUMBER(SEARCH("nF",G15)), VALUE(LEFT(G15,SEARCH("nF",G15)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G15)), VALUE(LEFT(G15,SEARCH("uF",G15)-1))*1000000,"")))</f>
+      <c r="I15" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H15)), VALUE(LEFT(H15,SEARCH("pF",H15)-1)),
+ IF(ISNUMBER(SEARCH("nF",H15)), VALUE(LEFT(H15,SEARCH("nF",H15)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H15)), VALUE(LEFT(H15,SEARCH("uF",H15)-1))*1000000,"")))</f>
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>505</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>529</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>525</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>240</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>241</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>23</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>36</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -3597,48 +3637,50 @@
       <c r="E16" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="H16" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G16)), VALUE(LEFT(G16,SEARCH("pF",G16)-1)),
- IF(ISNUMBER(SEARCH("nF",G16)), VALUE(LEFT(G16,SEARCH("nF",G16)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G16)), VALUE(LEFT(G16,SEARCH("µF",G16)-1))*1000000,"")))</f>
+      <c r="I16" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H16)), VALUE(LEFT(H16,SEARCH("pF",H16)-1)),
+ IF(ISNUMBER(SEARCH("nF",H16)), VALUE(LEFT(H16,SEARCH("nF",H16)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H16)), VALUE(LEFT(H16,SEARCH("µF",H16)-1))*1000000,"")))</f>
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="N16" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="O16" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R16" t="s">
         <v>242</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>243</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>89</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -3652,51 +3694,53 @@
       <c r="E17" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="H17" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G17)), VALUE(LEFT(G17,SEARCH("pF",G17)-1)),
- IF(ISNUMBER(SEARCH("nF",G17)), VALUE(LEFT(G17,SEARCH("nF",G17)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G17)), VALUE(LEFT(G17,SEARCH("uF",G17)-1))*1000000,"")))</f>
+      <c r="I17" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H17)), VALUE(LEFT(H17,SEARCH("pF",H17)-1)),
+ IF(ISNUMBER(SEARCH("nF",H17)), VALUE(LEFT(H17,SEARCH("nF",H17)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H17)), VALUE(LEFT(H17,SEARCH("uF",H17)-1))*1000000,"")))</f>
         <v>1.8</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="N17" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="O17" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R17" t="s">
         <v>244</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>245</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>90</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>38</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -3710,48 +3754,50 @@
       <c r="E18" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="H18" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G18)), VALUE(LEFT(G18,SEARCH("pF",G18)-1)),
- IF(ISNUMBER(SEARCH("nF",G18)), VALUE(LEFT(G18,SEARCH("nF",G18)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G18)), VALUE(LEFT(G18,SEARCH("µF",G18)-1))*1000000,"")))</f>
+      <c r="I18" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H18)), VALUE(LEFT(H18,SEARCH("pF",H18)-1)),
+ IF(ISNUMBER(SEARCH("nF",H18)), VALUE(LEFT(H18,SEARCH("nF",H18)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H18)), VALUE(LEFT(H18,SEARCH("µF",H18)-1))*1000000,"")))</f>
         <v>1.8</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="15">
+      <c r="J18" s="5"/>
+      <c r="K18" s="15">
         <v>402</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="N18" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="O18" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>246</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>247</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>91</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AF18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>321</v>
       </c>
@@ -3765,46 +3811,47 @@
       <c r="E19" s="15">
         <v>1206</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G19)), VALUE(LEFT(G19,SEARCH("pF",G19)-1)),
- IF(ISNUMBER(SEARCH("nF",G19)), VALUE(LEFT(G19,SEARCH("nF",G19)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G19)), VALUE(LEFT(G19,SEARCH("uF",G19)-1))*1000000,"")))</f>
+      <c r="I19" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H19)), VALUE(LEFT(H19,SEARCH("pF",H19)-1)),
+ IF(ISNUMBER(SEARCH("nF",H19)), VALUE(LEFT(H19,SEARCH("nF",H19)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H19)), VALUE(LEFT(H19,SEARCH("uF",H19)-1))*1000000,"")))</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="N19" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="O19" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>248</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>92</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>59</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -3818,48 +3865,50 @@
       <c r="E20" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="H20" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="H20" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G20)), VALUE(LEFT(G20,SEARCH("pF",G20)-1)),
- IF(ISNUMBER(SEARCH("nF",G20)), VALUE(LEFT(G20,SEARCH("nF",G20)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G20)), VALUE(LEFT(G20,SEARCH("µF",G20)-1))*1000000,"")))</f>
+      <c r="I20" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H20)), VALUE(LEFT(H20,SEARCH("pF",H20)-1)),
+ IF(ISNUMBER(SEARCH("nF",H20)), VALUE(LEFT(H20,SEARCH("nF",H20)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H20)), VALUE(LEFT(H20,SEARCH("µF",H20)-1))*1000000,"")))</f>
         <v>3</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20">
+      <c r="J20" s="19"/>
+      <c r="K20" s="20">
         <v>402</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="N20" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="O20" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>250</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>251</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>60</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:32">
       <c r="B21" s="7">
         <v>91</v>
       </c>
@@ -3870,44 +3919,46 @@
       <c r="E21" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:H27" si="2">IF(ISNUMBER(SEARCH("pF",G21)), VALUE(LEFT(G21,SEARCH("pF",G21)-1)),
- IF(ISNUMBER(SEARCH("nF",G21)), VALUE(LEFT(G21,SEARCH("nF",G21)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G21)), VALUE(LEFT(G21,SEARCH("uF",G21)-1))*1000000,"")))</f>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I27" si="2">IF(ISNUMBER(SEARCH("pF",H21)), VALUE(LEFT(H21,SEARCH("pF",H21)-1)),
+ IF(ISNUMBER(SEARCH("nF",H21)), VALUE(LEFT(H21,SEARCH("nF",H21)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H21)), VALUE(LEFT(H21,SEARCH("uF",H21)-1))*1000000,"")))</f>
         <v>3.9</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="P21" t="s">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="R21" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>252</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>93</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>37</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:32">
       <c r="B22" s="7">
         <v>100</v>
       </c>
@@ -3918,40 +3969,42 @@
       <c r="E22" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>94</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -3965,43 +4018,45 @@
       <c r="E23" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="H23" s="22">
+      <c r="I23" s="22">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="I23" s="22">
+      <c r="J23" s="22">
         <v>250</v>
       </c>
-      <c r="J23" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="P23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
         <v>95</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>65</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -4015,43 +4070,45 @@
       <c r="E24" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="H24" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="H24" s="22">
+      <c r="I24" s="22">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20">
+      <c r="J24" s="19"/>
+      <c r="K24" s="20">
         <v>603</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="20"/>
+      <c r="M24" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>0.7</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="P24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" t="s">
         <v>96</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>71</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -4065,41 +4122,43 @@
       <c r="E25" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H25" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="H25" s="22">
+      <c r="I25" s="22">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="16">
+      <c r="J25" s="5"/>
+      <c r="K25" s="16">
         <v>603</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="L25" s="16"/>
+      <c r="M25" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="L25" s="3">
+      <c r="N25" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M25" s="3">
+      <c r="O25" s="3">
         <v>1.4</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="V25" t="s">
+      <c r="P25" s="3"/>
+      <c r="X25" t="s">
         <v>97</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>73</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4113,43 +4172,44 @@
       <c r="E26" s="15">
         <v>1206</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="H26" s="22">
+      <c r="I26" s="22">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="I26" s="19">
+      <c r="J26" s="19">
         <v>250</v>
       </c>
-      <c r="J26" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="K26" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" t="s">
         <v>558</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>12</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.6</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="P26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X26" t="s">
         <v>98</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>418</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>318</v>
       </c>
@@ -4163,38 +4223,40 @@
       <c r="E27" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="H27" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="H27" s="22">
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="13">
+      <c r="J27" s="5"/>
+      <c r="K27" s="13">
         <v>603</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="13"/>
+      <c r="M27" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>36</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>0.4</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="V27" t="s">
+      <c r="P27" s="3"/>
+      <c r="X27" t="s">
         <v>99</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AF27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>298</v>
       </c>
@@ -4208,40 +4270,42 @@
       <c r="E28" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="H28" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G28)), VALUE(LEFT(G28,SEARCH("pF",G28)-1)),
- IF(ISNUMBER(SEARCH("nF",G28)), VALUE(LEFT(G28,SEARCH("nF",G28)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G28)), VALUE(LEFT(G28,SEARCH("µF",G28)-1))*1000000,"")))</f>
+      <c r="I28" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H28)), VALUE(LEFT(H28,SEARCH("pF",H28)-1)),
+ IF(ISNUMBER(SEARCH("nF",H28)), VALUE(LEFT(H28,SEARCH("nF",H28)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H28)), VALUE(LEFT(H28,SEARCH("µF",H28)-1))*1000000,"")))</f>
         <v>5.6</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="16">
+      <c r="J28" s="5"/>
+      <c r="K28" s="16">
         <v>603</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="L28" s="3">
+      <c r="N28" s="3">
         <v>68</v>
       </c>
-      <c r="M28" s="3">
+      <c r="O28" s="3">
         <v>0.34</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="V28" t="s">
+      <c r="P28" s="3"/>
+      <c r="X28" t="s">
         <v>100</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>259</v>
       </c>
@@ -4255,42 +4319,44 @@
       <c r="E29" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="19" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H29" s="22">
-        <f t="shared" ref="H29:H40" si="3">IF(ISNUMBER(SEARCH("pF",G29)), VALUE(LEFT(G29,SEARCH("pF",G29)-1)),
- IF(ISNUMBER(SEARCH("nF",G29)), VALUE(LEFT(G29,SEARCH("nF",G29)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G29)), VALUE(LEFT(G29,SEARCH("uF",G29)-1))*1000000,"")))</f>
+      <c r="I29" s="22">
+        <f t="shared" ref="I29:I40" si="3">IF(ISNUMBER(SEARCH("pF",H29)), VALUE(LEFT(H29,SEARCH("pF",H29)-1)),
+ IF(ISNUMBER(SEARCH("nF",H29)), VALUE(LEFT(H29,SEARCH("nF",H29)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H29)), VALUE(LEFT(H29,SEARCH("uF",H29)-1))*1000000,"")))</f>
         <v>6.8</v>
       </c>
-      <c r="I29" s="19">
+      <c r="J29" s="19">
         <v>250</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>150</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>0.08</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>101</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AF29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>300</v>
       </c>
@@ -4304,40 +4370,41 @@
       <c r="E30" s="15">
         <v>1206</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="H30" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="H30" s="22">
+      <c r="I30" s="22">
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="13">
+      <c r="J30" s="5"/>
+      <c r="K30" s="13">
         <v>603</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>22</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.2</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="V30" t="s">
+      <c r="X30" t="s">
         <v>102</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AF30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>269</v>
       </c>
@@ -4351,38 +4418,40 @@
       <c r="E31" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" t="s">
         <v>563</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>27</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.36</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="P31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X31" t="s">
         <v>103</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AF31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:32">
       <c r="B32" s="7">
         <v>300</v>
       </c>
@@ -4393,38 +4462,40 @@
       <c r="E32" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>100</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.22</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="P32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X32" t="s">
         <v>105</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -4438,38 +4509,40 @@
       <c r="E33" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="K33" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="17"/>
+      <c r="M33" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>43</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>0.38</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="V33" t="s">
+      <c r="P33" s="3"/>
+      <c r="X33" t="s">
         <v>104</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AF33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -4483,40 +4556,42 @@
       <c r="E34" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="H34" s="22">
+      <c r="I34" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="16">
+      <c r="J34" s="5"/>
+      <c r="K34" s="16">
         <v>805</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" t="s">
         <v>566</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>4.7</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.8</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="P34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X34" t="s">
         <v>106</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AF34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
         <v>255</v>
       </c>
@@ -4530,31 +4605,33 @@
       <c r="E35" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="V35" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="X35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:32">
       <c r="B36" s="7">
         <v>715</v>
       </c>
@@ -4565,33 +4642,35 @@
       <c r="E36" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L36" s="3">
+      <c r="N36" s="3">
         <v>30</v>
       </c>
-      <c r="M36" s="3">
+      <c r="O36" s="3">
         <v>0.42</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="V36" t="s">
+      <c r="P36" s="3"/>
+      <c r="X36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:32">
       <c r="B37" s="7" t="s">
         <v>227</v>
       </c>
@@ -4602,35 +4681,37 @@
       <c r="E37" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M37" s="3">
+      <c r="O37" s="3">
         <v>0.65</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="P37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:32">
       <c r="B38" s="7" t="s">
         <v>190</v>
       </c>
@@ -4641,33 +4722,35 @@
       <c r="E38" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="4"/>
+      <c r="K38" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="L38" s="3">
+      <c r="N38" s="3">
         <v>150</v>
       </c>
-      <c r="M38" s="3">
+      <c r="O38" s="3">
         <v>7</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="V38" t="s">
+      <c r="P38" s="3"/>
+      <c r="X38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:32">
       <c r="B39" s="7" t="s">
         <v>226</v>
       </c>
@@ -4678,33 +4761,35 @@
       <c r="E39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="5"/>
+      <c r="K39" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="M39" s="3">
+      <c r="O39" s="3">
         <v>1.5</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="V39" t="s">
+      <c r="P39" s="3"/>
+      <c r="X39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:32">
       <c r="B40" s="7" t="s">
         <v>225</v>
       </c>
@@ -4715,35 +4800,37 @@
       <c r="E40" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="K40" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="L40" s="17"/>
+      <c r="M40" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <v>39</v>
       </c>
-      <c r="M40" s="3">
+      <c r="O40" s="3">
         <v>0.3</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="V40" t="s">
+      <c r="P40" s="3"/>
+      <c r="X40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:32">
       <c r="B41" s="7" t="s">
         <v>225</v>
       </c>
@@ -4754,37 +4841,39 @@
       <c r="E41" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="H41" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="H41" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G41)), VALUE(LEFT(G41,SEARCH("pF",G41)-1)),
- IF(ISNUMBER(SEARCH("nF",G41)), VALUE(LEFT(G41,SEARCH("nF",G41)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G41)), VALUE(LEFT(G41,SEARCH("µF",G41)-1))*1000000,"")))</f>
+      <c r="I41" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H41)), VALUE(LEFT(H41,SEARCH("pF",H41)-1)),
+ IF(ISNUMBER(SEARCH("nF",H41)), VALUE(LEFT(H41,SEARCH("nF",H41)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H41)), VALUE(LEFT(H41,SEARCH("µF",H41)-1))*1000000,"")))</f>
         <v>27</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20">
+      <c r="J41" s="19"/>
+      <c r="K41" s="20">
         <v>805</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="20"/>
+      <c r="M41" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>0.3</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="V41" t="s">
+      <c r="P41" s="3"/>
+      <c r="X41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:32">
       <c r="B42" s="7" t="s">
         <v>225</v>
       </c>
@@ -4795,37 +4884,39 @@
       <c r="E42" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="19" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H42" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G42)), VALUE(LEFT(G42,SEARCH("pF",G42)-1)),
- IF(ISNUMBER(SEARCH("nF",G42)), VALUE(LEFT(G42,SEARCH("nF",G42)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G42)), VALUE(LEFT(G42,SEARCH("uF",G42)-1))*1000000,"")))</f>
+      <c r="I42" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H42)), VALUE(LEFT(H42,SEARCH("pF",H42)-1)),
+ IF(ISNUMBER(SEARCH("nF",H42)), VALUE(LEFT(H42,SEARCH("nF",H42)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H42)), VALUE(LEFT(H42,SEARCH("uF",H42)-1))*1000000,"")))</f>
         <v>47</v>
       </c>
-      <c r="I42" s="19">
+      <c r="J42" s="19">
         <v>50</v>
       </c>
-      <c r="J42" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>0.4</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="V42" t="s">
+      <c r="P42" s="3"/>
+      <c r="X42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:32">
       <c r="B43" s="7" t="s">
         <v>224</v>
       </c>
@@ -4836,35 +4927,37 @@
       <c r="E43" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="H43" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="H43" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G43)), VALUE(LEFT(G43,SEARCH("pF",G43)-1)),
- IF(ISNUMBER(SEARCH("nF",G43)), VALUE(LEFT(G43,SEARCH("nF",G43)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G43)), VALUE(LEFT(G43,SEARCH("uF",G43)-1))*1000000,"")))</f>
+      <c r="I43" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H43)), VALUE(LEFT(H43,SEARCH("pF",H43)-1)),
+ IF(ISNUMBER(SEARCH("nF",H43)), VALUE(LEFT(H43,SEARCH("nF",H43)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H43)), VALUE(LEFT(H43,SEARCH("uF",H43)-1))*1000000,"")))</f>
         <v>47</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="16">
+      <c r="J43" s="5"/>
+      <c r="K43" s="16">
         <v>603</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="V43" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="X43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>287</v>
       </c>
@@ -4878,27 +4971,29 @@
       <c r="E44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="19" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="H44" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G44)), VALUE(LEFT(G44,SEARCH("pF",G44)-1)),
- IF(ISNUMBER(SEARCH("nF",G44)), VALUE(LEFT(G44,SEARCH("nF",G44)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G44)), VALUE(LEFT(G44,SEARCH("uF",G44)-1))*1000000,"")))</f>
+      <c r="I44" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H44)), VALUE(LEFT(H44,SEARCH("pF",H44)-1)),
+ IF(ISNUMBER(SEARCH("nF",H44)), VALUE(LEFT(H44,SEARCH("nF",H44)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H44)), VALUE(LEFT(H44,SEARCH("uF",H44)-1))*1000000,"")))</f>
         <v>56</v>
       </c>
-      <c r="I44" s="19">
+      <c r="J44" s="19">
         <v>50</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="K44" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="X44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>319</v>
       </c>
@@ -4912,27 +5007,29 @@
       <c r="E45" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="H45" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="H45" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G45)), VALUE(LEFT(G45,SEARCH("pF",G45)-1)),
- IF(ISNUMBER(SEARCH("nF",G45)), VALUE(LEFT(G45,SEARCH("nF",G45)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G45)), VALUE(LEFT(G45,SEARCH("µF",G45)-1))*1000000,"")))</f>
+      <c r="I45" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H45)), VALUE(LEFT(H45,SEARCH("pF",H45)-1)),
+ IF(ISNUMBER(SEARCH("nF",H45)), VALUE(LEFT(H45,SEARCH("nF",H45)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H45)), VALUE(LEFT(H45,SEARCH("µF",H45)-1))*1000000,"")))</f>
         <v>56</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="15">
+      <c r="J45" s="5"/>
+      <c r="K45" s="15">
         <v>603</v>
       </c>
-      <c r="V45" t="s">
+      <c r="L45" s="15"/>
+      <c r="X45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:32">
       <c r="B46" s="7" t="s">
         <v>187</v>
       </c>
@@ -4943,27 +5040,29 @@
       <c r="E46" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="19" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H46" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G46)), VALUE(LEFT(G46,SEARCH("pF",G46)-1)),
- IF(ISNUMBER(SEARCH("nF",G46)), VALUE(LEFT(G46,SEARCH("nF",G46)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G46)), VALUE(LEFT(G46,SEARCH("uF",G46)-1))*1000000,"")))</f>
+      <c r="I46" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H46)), VALUE(LEFT(H46,SEARCH("pF",H46)-1)),
+ IF(ISNUMBER(SEARCH("nF",H46)), VALUE(LEFT(H46,SEARCH("nF",H46)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H46)), VALUE(LEFT(H46,SEARCH("uF",H46)-1))*1000000,"")))</f>
         <v>68</v>
       </c>
-      <c r="I46" s="19">
+      <c r="J46" s="19">
         <v>50</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="K46" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="X46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:32">
       <c r="B47" s="7" t="s">
         <v>187</v>
       </c>
@@ -4974,27 +5073,29 @@
       <c r="E47" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="19" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H47" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G47)), VALUE(LEFT(G47,SEARCH("pF",G47)-1)),
- IF(ISNUMBER(SEARCH("nF",G47)), VALUE(LEFT(G47,SEARCH("nF",G47)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G47)), VALUE(LEFT(G47,SEARCH("uF",G47)-1))*1000000,"")))</f>
+      <c r="I47" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H47)), VALUE(LEFT(H47,SEARCH("pF",H47)-1)),
+ IF(ISNUMBER(SEARCH("nF",H47)), VALUE(LEFT(H47,SEARCH("nF",H47)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H47)), VALUE(LEFT(H47,SEARCH("uF",H47)-1))*1000000,"")))</f>
         <v>68</v>
       </c>
-      <c r="I47" s="19">
+      <c r="J47" s="19">
         <v>50</v>
       </c>
-      <c r="J47" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="K47" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="X47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:32">
       <c r="B48" s="7" t="s">
         <v>223</v>
       </c>
@@ -5005,27 +5106,29 @@
       <c r="E48" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" t="s">
         <v>475</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="H48" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="H48" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G48)), VALUE(LEFT(G48,SEARCH("pF",G48)-1)),
- IF(ISNUMBER(SEARCH("nF",G48)), VALUE(LEFT(G48,SEARCH("nF",G48)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G48)), VALUE(LEFT(G48,SEARCH("uF",G48)-1))*1000000,"")))</f>
+      <c r="I48" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H48)), VALUE(LEFT(H48,SEARCH("pF",H48)-1)),
+ IF(ISNUMBER(SEARCH("nF",H48)), VALUE(LEFT(H48,SEARCH("nF",H48)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H48)), VALUE(LEFT(H48,SEARCH("uF",H48)-1))*1000000,"")))</f>
         <v>68</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="20">
+      <c r="J48" s="23"/>
+      <c r="K48" s="20">
         <v>603</v>
       </c>
-      <c r="V48" t="s">
+      <c r="L48" s="20"/>
+      <c r="X48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>278</v>
       </c>
@@ -5039,27 +5142,29 @@
       <c r="E49" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="13"/>
+      <c r="G49" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H49" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="H49" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G49)), VALUE(LEFT(G49,SEARCH("pF",G49)-1)),
- IF(ISNUMBER(SEARCH("nF",G49)), VALUE(LEFT(G49,SEARCH("nF",G49)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G49)), VALUE(LEFT(G49,SEARCH("µF",G49)-1))*1000000,"")))</f>
+      <c r="I49" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H49)), VALUE(LEFT(H49,SEARCH("pF",H49)-1)),
+ IF(ISNUMBER(SEARCH("nF",H49)), VALUE(LEFT(H49,SEARCH("nF",H49)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H49)), VALUE(LEFT(H49,SEARCH("µF",H49)-1))*1000000,"")))</f>
         <v>68</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="13">
+      <c r="J49" s="5"/>
+      <c r="K49" s="13">
         <v>603</v>
       </c>
-      <c r="V49" t="s">
+      <c r="L49" s="13"/>
+      <c r="X49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:24">
       <c r="B50" s="7" t="s">
         <v>222</v>
       </c>
@@ -5070,22 +5175,23 @@
       <c r="E50" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G50)), VALUE(LEFT(G50,SEARCH("pF",G50)-1)),
- IF(ISNUMBER(SEARCH("nF",G50)), VALUE(LEFT(G50,SEARCH("nF",G50)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G50)), VALUE(LEFT(G50,SEARCH("uF",G50)-1))*1000000,"")))</f>
+      <c r="I50" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H50)), VALUE(LEFT(H50,SEARCH("pF",H50)-1)),
+ IF(ISNUMBER(SEARCH("nF",H50)), VALUE(LEFT(H50,SEARCH("nF",H50)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H50)), VALUE(LEFT(H50,SEARCH("uF",H50)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="V50" t="s">
+      <c r="J50" s="5"/>
+      <c r="X50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:24">
       <c r="B51" s="7" t="s">
         <v>221</v>
       </c>
@@ -5096,27 +5202,29 @@
       <c r="E51" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H51" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G51)), VALUE(LEFT(G51,SEARCH("pF",G51)-1)),
- IF(ISNUMBER(SEARCH("nF",G51)), VALUE(LEFT(G51,SEARCH("nF",G51)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G51)), VALUE(LEFT(G51,SEARCH("uF",G51)-1))*1000000,"")))</f>
+      <c r="I51" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H51)), VALUE(LEFT(H51,SEARCH("pF",H51)-1)),
+ IF(ISNUMBER(SEARCH("nF",H51)), VALUE(LEFT(H51,SEARCH("nF",H51)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H51)), VALUE(LEFT(H51,SEARCH("uF",H51)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="K51" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="V51" t="s">
+      <c r="L51" s="17"/>
+      <c r="X51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>284</v>
       </c>
@@ -5130,27 +5238,29 @@
       <c r="E52" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H52" s="1">
-        <f>IF(ISNUMBER(SEARCH("pF",G52)), VALUE(LEFT(G52,SEARCH("pF",G52)-1)),
- IF(ISNUMBER(SEARCH("nF",G52)), VALUE(LEFT(G52,SEARCH("nF",G52)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G52)), VALUE(LEFT(G52,SEARCH("uF",G52)-1))*1000000,"")))</f>
+      <c r="I52" s="1">
+        <f>IF(ISNUMBER(SEARCH("pF",H52)), VALUE(LEFT(H52,SEARCH("pF",H52)-1)),
+ IF(ISNUMBER(SEARCH("nF",H52)), VALUE(LEFT(H52,SEARCH("nF",H52)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H52)), VALUE(LEFT(H52,SEARCH("uF",H52)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="K52" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="V52" t="s">
+      <c r="L52" s="17"/>
+      <c r="X52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>286</v>
       </c>
@@ -5164,27 +5274,29 @@
       <c r="E53" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="19" t="s">
+      <c r="F53" s="13"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="H53" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G53)), VALUE(LEFT(G53,SEARCH("pF",G53)-1)),
- IF(ISNUMBER(SEARCH("nF",G53)), VALUE(LEFT(G53,SEARCH("nF",G53)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G53)), VALUE(LEFT(G53,SEARCH("uF",G53)-1))*1000000,"")))</f>
+      <c r="I53" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H53)), VALUE(LEFT(H53,SEARCH("pF",H53)-1)),
+ IF(ISNUMBER(SEARCH("nF",H53)), VALUE(LEFT(H53,SEARCH("nF",H53)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H53)), VALUE(LEFT(H53,SEARCH("uF",H53)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I53" s="19">
+      <c r="J53" s="19">
         <v>5</v>
       </c>
-      <c r="J53" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="V53" t="s">
+      <c r="K53" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="X53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:24">
       <c r="B54" s="7" t="s">
         <v>193</v>
       </c>
@@ -5195,27 +5307,29 @@
       <c r="E54" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="H54" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="22">
-        <f t="shared" ref="H54:H62" si="5">IF(ISNUMBER(SEARCH("pF",G54)), VALUE(LEFT(G54,SEARCH("pF",G54)-1)),
- IF(ISNUMBER(SEARCH("nF",G54)), VALUE(LEFT(G54,SEARCH("nF",G54)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G54)), VALUE(LEFT(G54,SEARCH("µF",G54)-1))*1000000,"")))</f>
+      <c r="I54" s="22">
+        <f t="shared" ref="I54:I62" si="5">IF(ISNUMBER(SEARCH("pF",H54)), VALUE(LEFT(H54,SEARCH("pF",H54)-1)),
+ IF(ISNUMBER(SEARCH("nF",H54)), VALUE(LEFT(H54,SEARCH("nF",H54)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H54)), VALUE(LEFT(H54,SEARCH("µF",H54)-1))*1000000,"")))</f>
         <v>100</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="13">
+      <c r="J54" s="5"/>
+      <c r="K54" s="13">
         <v>402</v>
       </c>
-      <c r="V54" t="s">
+      <c r="L54" s="13"/>
+      <c r="X54" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -5229,25 +5343,27 @@
       <c r="E55" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="13"/>
+      <c r="G55" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="H55" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="22">
+      <c r="I55" s="22">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20">
+      <c r="J55" s="19"/>
+      <c r="K55" s="20">
         <v>402</v>
       </c>
-      <c r="V55" t="s">
+      <c r="L55" s="20"/>
+      <c r="X55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:24">
       <c r="B56" s="7" t="s">
         <v>220</v>
       </c>
@@ -5258,25 +5374,27 @@
       <c r="E56" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="H56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="22">
+      <c r="I56" s="22">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="13">
+      <c r="J56" s="5"/>
+      <c r="K56" s="13">
         <v>603</v>
       </c>
-      <c r="V56" t="s">
+      <c r="L56" s="13"/>
+      <c r="X56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>280</v>
       </c>
@@ -5290,25 +5408,27 @@
       <c r="E57" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="H57" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="H57" s="22">
+      <c r="I57" s="22">
         <f t="shared" si="5"/>
         <v>390</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="16">
+      <c r="J57" s="5"/>
+      <c r="K57" s="16">
         <v>805</v>
       </c>
-      <c r="V57" t="s">
+      <c r="L57" s="16"/>
+      <c r="X57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:24">
       <c r="B58" s="7" t="s">
         <v>219</v>
       </c>
@@ -5319,25 +5439,27 @@
       <c r="E58" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="H58" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="H58" s="22">
+      <c r="I58" s="22">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="13">
+      <c r="J58" s="5"/>
+      <c r="K58" s="13">
         <v>603</v>
       </c>
-      <c r="V58" t="s">
+      <c r="L58" s="13"/>
+      <c r="X58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -5351,25 +5473,27 @@
       <c r="E59" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="13"/>
+      <c r="G59" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="H59" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="H59" s="22">
+      <c r="I59" s="22">
         <f t="shared" si="5"/>
         <v>820</v>
       </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="13">
+      <c r="J59" s="5"/>
+      <c r="K59" s="13">
         <v>805</v>
       </c>
-      <c r="V59" t="s">
+      <c r="L59" s="13"/>
+      <c r="X59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>289</v>
       </c>
@@ -5383,25 +5507,27 @@
       <c r="E60" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="13"/>
+      <c r="G60" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="H60" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="H60" s="22">
+      <c r="I60" s="22">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="16">
+      <c r="J60" s="5"/>
+      <c r="K60" s="16">
         <v>402</v>
       </c>
-      <c r="V60" t="s">
+      <c r="L60" s="16"/>
+      <c r="X60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:24">
       <c r="B61" s="7" t="s">
         <v>192</v>
       </c>
@@ -5412,25 +5538,27 @@
       <c r="E61" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="H61" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="H61" s="22">
+      <c r="I61" s="22">
         <f t="shared" si="5"/>
         <v>3300</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="16">
+      <c r="J61" s="5"/>
+      <c r="K61" s="16">
         <v>805</v>
       </c>
-      <c r="V61" t="s">
+      <c r="L61" s="16"/>
+      <c r="X61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -5444,25 +5572,27 @@
       <c r="E62" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="13"/>
+      <c r="G62" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="H62" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="H62" s="22">
+      <c r="I62" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="16">
+      <c r="J62" s="5"/>
+      <c r="K62" s="16">
         <v>603</v>
       </c>
-      <c r="V62" t="s">
+      <c r="L62" s="16"/>
+      <c r="X62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -5476,27 +5606,29 @@
       <c r="E63" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="H63" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G63)), VALUE(LEFT(G63,SEARCH("pF",G63)-1)),
- IF(ISNUMBER(SEARCH("nF",G63)), VALUE(LEFT(G63,SEARCH("nF",G63)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G63)), VALUE(LEFT(G63,SEARCH("uF",G63)-1))*1000000,"")))</f>
+      <c r="I63" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H63)), VALUE(LEFT(H63,SEARCH("pF",H63)-1)),
+ IF(ISNUMBER(SEARCH("nF",H63)), VALUE(LEFT(H63,SEARCH("nF",H63)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H63)), VALUE(LEFT(H63,SEARCH("uF",H63)-1))*1000000,"")))</f>
         <v>100000</v>
       </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20">
+      <c r="J63" s="19"/>
+      <c r="K63" s="20">
         <v>402</v>
       </c>
-      <c r="V63" t="s">
+      <c r="L63" s="20"/>
+      <c r="X63" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -5510,27 +5642,29 @@
       <c r="E64" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="13"/>
+      <c r="G64" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="H64" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="H64" s="22">
-        <f t="shared" ref="H64:H82" si="6">IF(ISNUMBER(SEARCH("pF",G64)), VALUE(LEFT(G64,SEARCH("pF",G64)-1)),
- IF(ISNUMBER(SEARCH("nF",G64)), VALUE(LEFT(G64,SEARCH("nF",G64)-1))*1000,
- IF(ISNUMBER(SEARCH("µF",G64)), VALUE(LEFT(G64,SEARCH("µF",G64)-1))*1000000,"")))</f>
+      <c r="I64" s="22">
+        <f t="shared" ref="I64:I82" si="6">IF(ISNUMBER(SEARCH("pF",H64)), VALUE(LEFT(H64,SEARCH("pF",H64)-1)),
+ IF(ISNUMBER(SEARCH("nF",H64)), VALUE(LEFT(H64,SEARCH("nF",H64)-1))*1000,
+ IF(ISNUMBER(SEARCH("µF",H64)), VALUE(LEFT(H64,SEARCH("µF",H64)-1))*1000000,"")))</f>
         <v>100000</v>
       </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="16">
+      <c r="J64" s="5"/>
+      <c r="K64" s="16">
         <v>603</v>
       </c>
-      <c r="V64" t="s">
+      <c r="L64" s="16"/>
+      <c r="X64" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -5544,25 +5678,27 @@
       <c r="E65" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="13"/>
+      <c r="G65" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="H65" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="H65" s="22">
+      <c r="I65" s="22">
         <f t="shared" si="6"/>
         <v>1000000</v>
       </c>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20">
+      <c r="J65" s="19"/>
+      <c r="K65" s="20">
         <v>805</v>
       </c>
-      <c r="V65" t="s">
+      <c r="L65" s="20"/>
+      <c r="X65" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:24">
       <c r="B66" s="7" t="s">
         <v>218</v>
       </c>
@@ -5573,25 +5709,27 @@
       <c r="E66" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="14"/>
+      <c r="G66" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="H66" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="H66" s="22">
+      <c r="I66" s="22">
         <f t="shared" si="6"/>
         <v>2200000</v>
       </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="15">
+      <c r="J66" s="5"/>
+      <c r="K66" s="15">
         <v>603</v>
       </c>
-      <c r="V66" t="s">
+      <c r="L66" s="15"/>
+      <c r="X66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -5605,25 +5743,27 @@
       <c r="E67" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="13"/>
+      <c r="G67" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="H67" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="H67" s="22">
+      <c r="I67" s="22">
         <f t="shared" si="6"/>
         <v>2200000</v>
       </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="16">
+      <c r="J67" s="5"/>
+      <c r="K67" s="16">
         <v>603</v>
       </c>
-      <c r="V67" t="s">
+      <c r="L67" s="16"/>
+      <c r="X67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -5637,25 +5777,27 @@
       <c r="E68" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="13"/>
+      <c r="G68" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="H68" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="H68" s="22">
+      <c r="I68" s="22">
         <f t="shared" si="6"/>
         <v>4700000</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20">
+      <c r="J68" s="19"/>
+      <c r="K68" s="20">
         <v>603</v>
       </c>
-      <c r="V68" t="s">
+      <c r="L68" s="20"/>
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
         <v>290</v>
       </c>
@@ -5669,25 +5811,27 @@
       <c r="E69" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="13"/>
+      <c r="G69" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="H69" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="H69" s="22">
+      <c r="I69" s="22">
         <f t="shared" si="6"/>
         <v>4700000</v>
       </c>
-      <c r="I69" s="5"/>
-      <c r="J69" s="13">
+      <c r="J69" s="5"/>
+      <c r="K69" s="13">
         <v>402</v>
       </c>
-      <c r="V69" t="s">
+      <c r="L69" s="13"/>
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:24">
       <c r="B70" s="7" t="s">
         <v>195</v>
       </c>
@@ -5698,25 +5842,27 @@
       <c r="E70" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="14"/>
+      <c r="G70" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="H70" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="H70" s="22">
+      <c r="I70" s="22">
         <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="13">
+      <c r="J70" s="5"/>
+      <c r="K70" s="13">
         <v>603</v>
       </c>
-      <c r="V70" t="s">
+      <c r="L70" s="13"/>
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:24">
       <c r="B71" s="7" t="s">
         <v>194</v>
       </c>
@@ -5727,25 +5873,27 @@
       <c r="E71" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="H71" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="H71" s="22">
+      <c r="I71" s="22">
         <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="5"/>
+      <c r="K71" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="V71" t="s">
+      <c r="L71" s="16"/>
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:24">
       <c r="B72" s="7" t="s">
         <v>217</v>
       </c>
@@ -5756,25 +5904,27 @@
       <c r="E72" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="14"/>
+      <c r="G72" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="H72" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="H72" s="22">
+      <c r="I72" s="22">
         <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="16">
+      <c r="J72" s="5"/>
+      <c r="K72" s="16">
         <v>1206</v>
       </c>
-      <c r="V72" t="s">
+      <c r="L72" s="16"/>
+      <c r="X72" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:24">
       <c r="B73" s="7" t="s">
         <v>196</v>
       </c>
@@ -5785,25 +5935,27 @@
       <c r="E73" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="14"/>
+      <c r="G73" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="H73" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="H73" s="22">
+      <c r="I73" s="22">
         <f t="shared" si="6"/>
         <v>15000000</v>
       </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="13">
+      <c r="J73" s="5"/>
+      <c r="K73" s="13">
         <v>805</v>
       </c>
-      <c r="V73" t="s">
+      <c r="L73" s="13"/>
+      <c r="X73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
         <v>292</v>
       </c>
@@ -5814,25 +5966,26 @@
         <f t="shared" si="7"/>
         <v>88700</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="H74" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="H74" s="22">
+      <c r="I74" s="22">
         <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20">
+      <c r="J74" s="19"/>
+      <c r="K74" s="20">
         <v>1206</v>
       </c>
-      <c r="V74" t="s">
+      <c r="L74" s="20"/>
+      <c r="X74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -5846,25 +5999,27 @@
       <c r="E75" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F75" s="13"/>
+      <c r="G75" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="H75" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="H75" s="22">
+      <c r="I75" s="22">
         <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="5"/>
+      <c r="K75" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="V75" t="s">
+      <c r="L75" s="13"/>
+      <c r="X75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
         <v>291</v>
       </c>
@@ -5878,25 +6033,27 @@
       <c r="E76" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="13"/>
+      <c r="G76" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="H76" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="H76" s="22">
+      <c r="I76" s="22">
         <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="16">
+      <c r="J76" s="5"/>
+      <c r="K76" s="16">
         <v>805</v>
       </c>
-      <c r="V76" t="s">
+      <c r="L76" s="16"/>
+      <c r="X76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -5910,25 +6067,27 @@
       <c r="E77" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="13"/>
+      <c r="G77" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="H77" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="H77" s="22">
+      <c r="I77" s="22">
         <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="16">
+      <c r="J77" s="5"/>
+      <c r="K77" s="16">
         <v>1210</v>
       </c>
-      <c r="V77" t="s">
+      <c r="L77" s="16"/>
+      <c r="X77" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
         <v>310</v>
       </c>
@@ -5942,25 +6101,27 @@
       <c r="E78" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="14"/>
+      <c r="G78" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="H78" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="H78" s="22">
+      <c r="I78" s="22">
         <f t="shared" si="6"/>
         <v>22000000</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="13">
+      <c r="J78" s="5"/>
+      <c r="K78" s="13">
         <v>1210</v>
       </c>
-      <c r="V78" t="s">
+      <c r="L78" s="13"/>
+      <c r="X78" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
         <v>261</v>
       </c>
@@ -5974,22 +6135,24 @@
       <c r="E79" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="13"/>
+      <c r="G79" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="H79" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="H79" s="22">
+      <c r="I79" s="22">
         <f t="shared" si="6"/>
         <v>33000000</v>
       </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="16">
+      <c r="J79" s="5"/>
+      <c r="K79" s="16">
         <v>1206</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="L79" s="16"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -6003,22 +6166,24 @@
       <c r="E80" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="14"/>
+      <c r="G80" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="H80" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="H80" s="22">
+      <c r="I80" s="22">
         <f t="shared" si="6"/>
         <v>47000000</v>
       </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="13">
+      <c r="J80" s="5"/>
+      <c r="K80" s="13">
         <v>1206</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="B81" s="7" t="s">
         <v>216</v>
       </c>
@@ -6029,22 +6194,24 @@
       <c r="E81" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="14"/>
+      <c r="G81" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="H81" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="H81" s="22">
+      <c r="I81" s="22">
         <f t="shared" si="6"/>
         <v>47000000</v>
       </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="16">
+      <c r="J81" s="5"/>
+      <c r="K81" s="16">
         <v>805</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="L81" s="16"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="B82" s="7" t="s">
         <v>215</v>
       </c>
@@ -6055,25 +6222,27 @@
       <c r="E82" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F82" s="14"/>
+      <c r="G82" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="H82" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="H82" s="22">
+      <c r="I82" s="22">
         <f t="shared" si="6"/>
         <v>100000000</v>
       </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="5"/>
+      <c r="K82" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
+      <c r="L82" s="13"/>
       <c r="O82" s="18"/>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -6087,29 +6256,31 @@
       <c r="E83" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="14"/>
+      <c r="G83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="H83" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="22">
-        <f>IF(ISNUMBER(SEARCH("pF",G83)), VALUE(LEFT(G83,SEARCH("pF",G83)-1)),
- IF(ISNUMBER(SEARCH("nF",G83)), VALUE(LEFT(G83,SEARCH("nF",G83)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G83)), VALUE(LEFT(G83,SEARCH("uF",G83)-1))*1000000,"")))</f>
+      <c r="I83" s="22">
+        <f>IF(ISNUMBER(SEARCH("pF",H83)), VALUE(LEFT(H83,SEARCH("pF",H83)-1)),
+ IF(ISNUMBER(SEARCH("nF",H83)), VALUE(LEFT(H83,SEARCH("nF",H83)-1))*1000,
+ IF(ISNUMBER(SEARCH("uF",H83)), VALUE(LEFT(H83,SEARCH("uF",H83)-1))*1000000,"")))</f>
         <v>220000000</v>
       </c>
-      <c r="I83" s="19">
+      <c r="J83" s="19">
         <v>50</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="K83" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
+      <c r="L83" s="23"/>
       <c r="O83" s="18"/>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="B84" s="7" t="s">
         <v>214</v>
       </c>
@@ -6120,15 +6291,16 @@
       <c r="E84" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F84" s="19"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="5"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="5"/>
       <c r="O84" s="18"/>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -6142,16 +6314,18 @@
       <c r="E85" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="19"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
       <c r="O85" s="18"/>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>324</v>
       </c>
@@ -6165,16 +6339,18 @@
       <c r="E86" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F86" s="34"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
-      <c r="I86" s="19"/>
+      <c r="I86" s="34"/>
       <c r="J86" s="19"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
       <c r="O86" s="18"/>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>326</v>
       </c>
@@ -6185,11 +6361,11 @@
         <f t="shared" ref="C87:C130" si="8">IF(RIGHT(B87,1)="K",VALUE(LEFT(B87,LEN(B87)-1))*1000,VALUE(B87))</f>
         <v>3.16</v>
       </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="34"/>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="G87" s="34"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="34"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>327</v>
       </c>
@@ -6203,11 +6379,12 @@
       <c r="E88" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="34"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="F88" s="13"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>329</v>
       </c>
@@ -6221,11 +6398,12 @@
       <c r="E89" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="34"/>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="F89" s="13"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>330</v>
       </c>
@@ -6239,11 +6417,12 @@
       <c r="E90" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="34"/>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="F90" s="13"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>331</v>
       </c>
@@ -6257,11 +6436,12 @@
       <c r="E91" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="34"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="34"/>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="F91" s="13"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="34"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>332</v>
       </c>
@@ -6275,11 +6455,12 @@
       <c r="E92" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="34"/>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="F92" s="13"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>334</v>
       </c>
@@ -6293,11 +6474,12 @@
       <c r="E93" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="34"/>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="F93" s="13"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>335</v>
       </c>
@@ -6311,11 +6493,12 @@
       <c r="E94" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="34"/>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="F94" s="13"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>336</v>
       </c>
@@ -6329,11 +6512,12 @@
       <c r="E95" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="34"/>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="F95" s="13"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>338</v>
       </c>
@@ -6347,11 +6531,12 @@
       <c r="E96" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="34"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="F96" s="13"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>339</v>
       </c>
@@ -6365,11 +6550,12 @@
       <c r="E97" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="34"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="F97" s="13"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>340</v>
       </c>
@@ -6383,11 +6569,12 @@
       <c r="E98" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="34"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="F98" s="13"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>342</v>
       </c>
@@ -6401,11 +6588,12 @@
       <c r="E99" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="34"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="F99" s="13"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="34"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>343</v>
       </c>
@@ -6416,11 +6604,11 @@
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="G100" s="34"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>344</v>
       </c>
@@ -6434,11 +6622,12 @@
       <c r="E101" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="34"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="F101" s="13"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="34"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>345</v>
       </c>
@@ -6452,11 +6641,12 @@
       <c r="E102" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="34"/>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="F102" s="13"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>347</v>
       </c>
@@ -6470,11 +6660,12 @@
       <c r="E103" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="34"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="F103" s="13"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="34"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>383</v>
       </c>
@@ -6488,11 +6679,12 @@
       <c r="E104" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="F104" s="13"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="34"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>384</v>
       </c>
@@ -6506,11 +6698,12 @@
       <c r="E105" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="34"/>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="F105" s="13"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="34"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>386</v>
       </c>
@@ -6524,11 +6717,12 @@
       <c r="E106" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="34"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="F106" s="13"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="34"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>387</v>
       </c>
@@ -6542,11 +6736,12 @@
       <c r="E107" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F107" s="34"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="34"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="F107" s="13"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="34"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>404</v>
       </c>
@@ -6560,11 +6755,12 @@
       <c r="E108" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F108" s="34"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="34"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="F108" s="13"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="34"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>413</v>
       </c>
@@ -6572,11 +6768,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="34"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="G109" s="34"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="34"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>414</v>
       </c>
@@ -6590,11 +6786,12 @@
       <c r="E110" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F110" s="34"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="34"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="F110" s="13"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="34"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>415</v>
       </c>
@@ -6608,11 +6805,12 @@
       <c r="E111" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F111" s="34"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="34"/>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="F111" s="13"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="34"/>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>416</v>
       </c>
@@ -6626,11 +6824,12 @@
       <c r="E112" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F112" s="34"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="34"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="F112" s="13"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="34"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>419</v>
       </c>
@@ -6644,11 +6843,12 @@
       <c r="E113" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F113" s="34"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="34"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="F113" s="13"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="34"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>420</v>
       </c>
@@ -6662,11 +6862,12 @@
       <c r="E114" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F114" s="34"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="34"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="F114" s="13"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="34"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>424</v>
       </c>
@@ -6680,11 +6881,12 @@
       <c r="E115" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F115" s="34"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="34"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="F115" s="13"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="34"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="19" t="s">
         <v>427</v>
       </c>
@@ -6699,11 +6901,12 @@
       <c r="E116" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F116" s="34"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="34"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="F116" s="20"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="34"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="19" t="s">
         <v>428</v>
       </c>
@@ -6718,11 +6921,12 @@
       <c r="E117" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F117" s="34"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="34"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="F117" s="20"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="34"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="19" t="s">
         <v>429</v>
       </c>
@@ -6737,11 +6941,12 @@
       <c r="E118" s="21">
         <v>1206</v>
       </c>
-      <c r="F118" s="34"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="34"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="F118" s="21"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="19" t="s">
         <v>430</v>
       </c>
@@ -6754,11 +6959,12 @@
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="21"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="34"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="F119" s="21"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="19" t="s">
         <v>431</v>
       </c>
@@ -6773,11 +6979,12 @@
       <c r="E120" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F120" s="34"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="34"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="F120" s="20"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="34"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="19" t="s">
         <v>433</v>
       </c>
@@ -6792,11 +6999,12 @@
       <c r="E121" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F121" s="34"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="34"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="F121" s="20"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="34"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="19" t="s">
         <v>435</v>
       </c>
@@ -6811,11 +7019,12 @@
       <c r="E122" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F122" s="34"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="34"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="F122" s="20"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="34"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="19" t="s">
         <v>436</v>
       </c>
@@ -6830,11 +7039,12 @@
       <c r="E123" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="34"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="34"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="F123" s="20"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="34"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="19" t="s">
         <v>437</v>
       </c>
@@ -6849,11 +7059,12 @@
       <c r="E124" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F124" s="34"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="34"/>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="F124" s="20"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="34"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="19" t="s">
         <v>438</v>
       </c>
@@ -6868,11 +7079,12 @@
       <c r="E125" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F125" s="34"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="34"/>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="F125" s="20"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="34"/>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="19" t="s">
         <v>440</v>
       </c>
@@ -6887,11 +7099,12 @@
       <c r="E126" s="21">
         <v>1206</v>
       </c>
-      <c r="F126" s="34"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="34"/>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="F126" s="21"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="34"/>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="19" t="s">
         <v>441</v>
       </c>
@@ -6906,11 +7119,12 @@
       <c r="E127" s="21">
         <v>1206</v>
       </c>
-      <c r="F127" s="34"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="34"/>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="F127" s="21"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="34"/>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="19" t="s">
         <v>442</v>
       </c>
@@ -6925,11 +7139,12 @@
       <c r="E128" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F128" s="34"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="34"/>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="F128" s="20"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="34"/>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="19" t="s">
         <v>444</v>
       </c>
@@ -6944,11 +7159,12 @@
       <c r="E129" s="21">
         <v>1206</v>
       </c>
-      <c r="F129" s="34"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="34"/>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="F129" s="21"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="34"/>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="19" t="s">
         <v>445</v>
       </c>
@@ -6963,11 +7179,12 @@
       <c r="E130" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F130" s="34"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="34"/>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="F130" s="20"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="34"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="19" t="s">
         <v>447</v>
       </c>
@@ -6982,11 +7199,12 @@
       <c r="E131" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F131" s="34"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="34"/>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="F131" s="20"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="34"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="19" t="s">
         <v>449</v>
       </c>
@@ -7001,11 +7219,12 @@
       <c r="E132" s="21">
         <v>1206</v>
       </c>
-      <c r="F132" s="34"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="34"/>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="F132" s="21"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="34"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="19" t="s">
         <v>450</v>
       </c>
@@ -7020,11 +7239,12 @@
       <c r="E133" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F133" s="34"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="34"/>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="F133" s="20"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="34"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="19" t="s">
         <v>451</v>
       </c>
@@ -7039,11 +7259,12 @@
       <c r="E134" s="21">
         <v>1206</v>
       </c>
-      <c r="F134" s="34"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="34"/>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="F134" s="21"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="34"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="19" t="s">
         <v>452</v>
       </c>
@@ -7058,8 +7279,9 @@
       <c r="E135" s="20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="F135" s="20"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="19" t="s">
         <v>454</v>
       </c>
@@ -7074,8 +7296,9 @@
       <c r="E136" s="20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="19" t="s">
         <v>455</v>
       </c>
@@ -7090,8 +7313,9 @@
       <c r="E137" s="21">
         <v>1206</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="F137" s="21"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="19" t="s">
         <v>456</v>
       </c>
@@ -7106,8 +7330,9 @@
       <c r="E138" s="20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="F138" s="20"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="19" t="s">
         <v>550</v>
       </c>
@@ -7117,18 +7342,19 @@
       <c r="E143" s="13" t="s">
         <v>207</v>
       </c>
+      <c r="F143" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="F3:J83">
-    <sortCondition ref="H3:H83"/>
+  <sortState ref="G3:K83">
+    <sortCondition ref="I3:I83"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
